--- a/data/output/FV2404_FV2310/UTILMD/55014.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55014.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20518" uniqueCount="1260">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20539" uniqueCount="1260">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4053,6 +4053,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1054" totalsRowShown="0">
+  <autoFilter ref="A1:U1054"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4342,7 +4372,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -50929,5 +50962,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55014.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24777" uniqueCount="2291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24473" uniqueCount="2291">
   <si>
     <t>#</t>
   </si>
@@ -15020,9 +15020,7 @@
         <v>757</v>
       </c>
       <c r="K144" s="2"/>
-      <c r="L144" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L144" s="7"/>
       <c r="M144" s="2" t="s">
         <v>52</v>
       </c>
@@ -15076,9 +15074,7 @@
         <v>757</v>
       </c>
       <c r="K145" s="2"/>
-      <c r="L145" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L145" s="7"/>
       <c r="M145" s="2" t="s">
         <v>52</v>
       </c>
@@ -15132,9 +15128,7 @@
         <v>757</v>
       </c>
       <c r="K146" s="2"/>
-      <c r="L146" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L146" s="7"/>
       <c r="M146" s="2" t="s">
         <v>52</v>
       </c>
@@ -15600,9 +15594,7 @@
         <v>757</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L155" s="7"/>
       <c r="M155" s="2" t="s">
         <v>54</v>
       </c>
@@ -15853,46 +15845,44 @@
       </c>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2" t="s">
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="L160" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M160" s="2" t="s">
+      <c r="L160" s="7"/>
+      <c r="M160" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="N160" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2" t="s">
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="V160" s="2" t="s">
+      <c r="V160" s="5" t="s">
         <v>915</v>
       </c>
     </row>
@@ -16163,44 +16153,42 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="5" t="s">
         <v>1410</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2" t="s">
+      <c r="C166" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K166" s="2"/>
-      <c r="L166" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M166" s="2" t="s">
+      <c r="K166" s="5"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N166" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2" t="s">
+      <c r="N166" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+      <c r="U166" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V166" s="2"/>
+      <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="2" t="s">
@@ -16392,9 +16380,7 @@
         <v>757</v>
       </c>
       <c r="K170" s="2"/>
-      <c r="L170" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L170" s="7"/>
       <c r="M170" s="2" t="s">
         <v>58</v>
       </c>
@@ -16421,44 +16407,42 @@
       <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2" t="s">
+      <c r="C171" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K171" s="2"/>
-      <c r="L171" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M171" s="2" t="s">
+      <c r="K171" s="5"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N171" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2" t="s">
+      <c r="N171" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O171" s="5"/>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="5"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+      <c r="U171" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V171" s="2"/>
+      <c r="V171" s="5"/>
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="2" t="s">
@@ -16851,46 +16835,44 @@
       <c r="V179" s="9"/>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="5" t="s">
         <v>1424</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2" t="s">
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="K180" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="L180" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M180" s="2" t="s">
+      <c r="L180" s="7"/>
+      <c r="M180" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N180" s="2" t="s">
+      <c r="N180" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2" t="s">
+      <c r="O180" s="5"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+      <c r="U180" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="V180" s="2" t="s">
+      <c r="V180" s="5" t="s">
         <v>916</v>
       </c>
     </row>
@@ -17377,44 +17359,42 @@
       <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="5" t="s">
         <v>1434</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
-      <c r="J190" s="2" t="s">
+      <c r="C190" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K190" s="2"/>
-      <c r="L190" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M190" s="2" t="s">
+      <c r="K190" s="5"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N190" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O190" s="2"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="2"/>
-      <c r="R190" s="2"/>
-      <c r="S190" s="2"/>
-      <c r="T190" s="2"/>
-      <c r="U190" s="2" t="s">
+      <c r="N190" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+      <c r="U190" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V190" s="2"/>
+      <c r="V190" s="5"/>
     </row>
     <row r="191" spans="1:22">
       <c r="A191" s="2" t="s">
@@ -17652,9 +17632,7 @@
         <v>791</v>
       </c>
       <c r="K195" s="2"/>
-      <c r="L195" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L195" s="7"/>
       <c r="M195" s="2" t="s">
         <v>64</v>
       </c>
@@ -17681,46 +17659,44 @@
       <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="5" t="s">
         <v>1440</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="2"/>
-      <c r="J196" s="2" t="s">
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="L196" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M196" s="2" t="s">
+      <c r="L196" s="7"/>
+      <c r="M196" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="N196" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O196" s="2"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="2"/>
-      <c r="R196" s="2"/>
-      <c r="S196" s="2"/>
-      <c r="T196" s="2"/>
-      <c r="U196" s="2" t="s">
+      <c r="O196" s="5"/>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+      <c r="R196" s="5"/>
+      <c r="S196" s="5"/>
+      <c r="T196" s="5"/>
+      <c r="U196" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="V196" s="2" t="s">
+      <c r="V196" s="5" t="s">
         <v>916</v>
       </c>
     </row>
@@ -18211,46 +18187,44 @@
       <c r="V205" s="2"/>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="5" t="s">
         <v>1450</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2" t="s">
+      <c r="C206" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="K206" s="2" t="s">
+      <c r="K206" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="L206" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M206" s="2" t="s">
+      <c r="L206" s="7"/>
+      <c r="M206" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N206" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="2" t="s">
+      <c r="N206" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="V206" s="2" t="s">
+      <c r="V206" s="5" t="s">
         <v>918</v>
       </c>
     </row>
@@ -18413,44 +18387,42 @@
       <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="5" t="s">
         <v>1454</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2" t="s">
+      <c r="C210" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M210" s="2" t="s">
+      <c r="K210" s="5"/>
+      <c r="L210" s="7"/>
+      <c r="M210" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N210" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2" t="s">
+      <c r="N210" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O210" s="5"/>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+      <c r="U210" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V210" s="2"/>
+      <c r="V210" s="5"/>
     </row>
     <row r="211" spans="1:22">
       <c r="A211" s="2" t="s">
@@ -18688,9 +18660,7 @@
         <v>757</v>
       </c>
       <c r="K215" s="2"/>
-      <c r="L215" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L215" s="7"/>
       <c r="M215" s="2" t="s">
         <v>67</v>
       </c>
@@ -18771,44 +18741,42 @@
       <c r="V216" s="2"/>
     </row>
     <row r="217" spans="1:22">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2" t="s">
+      <c r="C217" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K217" s="2"/>
-      <c r="L217" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M217" s="2" t="s">
+      <c r="K217" s="5"/>
+      <c r="L217" s="7"/>
+      <c r="M217" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N217" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2" t="s">
+      <c r="N217" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O217" s="5"/>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="5"/>
+      <c r="S217" s="5"/>
+      <c r="T217" s="5"/>
+      <c r="U217" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V217" s="2"/>
+      <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
       <c r="A218" s="2" t="s">
@@ -18915,46 +18883,44 @@
       <c r="V219" s="2"/>
     </row>
     <row r="220" spans="1:22">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="5" t="s">
         <v>1464</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2" t="s">
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="K220" s="2" t="s">
+      <c r="K220" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="L220" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M220" s="2" t="s">
+      <c r="L220" s="7"/>
+      <c r="M220" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N220" s="2" t="s">
+      <c r="N220" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2" t="s">
+      <c r="O220" s="5"/>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
+      <c r="U220" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="V220" s="2" t="s">
+      <c r="V220" s="5" t="s">
         <v>890</v>
       </c>
     </row>
@@ -19225,46 +19191,44 @@
       </c>
     </row>
     <row r="226" spans="1:22">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="5" t="s">
         <v>1470</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2" t="s">
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="K226" s="2" t="s">
+      <c r="K226" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="L226" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M226" s="2" t="s">
+      <c r="L226" s="7"/>
+      <c r="M226" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N226" s="2" t="s">
+      <c r="N226" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2" t="s">
+      <c r="O226" s="5"/>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+      <c r="R226" s="5"/>
+      <c r="S226" s="5"/>
+      <c r="T226" s="5"/>
+      <c r="U226" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="V226" s="2" t="s">
+      <c r="V226" s="5" t="s">
         <v>919</v>
       </c>
     </row>
@@ -19400,9 +19364,7 @@
         <v>757</v>
       </c>
       <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L229" s="7"/>
       <c r="M229" s="2" t="s">
         <v>71</v>
       </c>
@@ -19574,9 +19536,7 @@
       <c r="K232" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="L232" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L232" s="7"/>
       <c r="M232" s="2" t="s">
         <v>71</v>
       </c>
@@ -19605,46 +19565,44 @@
       </c>
     </row>
     <row r="233" spans="1:22">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2" t="s">
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="K233" s="2" t="s">
+      <c r="K233" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="L233" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M233" s="2" t="s">
+      <c r="L233" s="7"/>
+      <c r="M233" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="N233" s="2" t="s">
+      <c r="N233" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2" t="s">
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="V233" s="2" t="s">
+      <c r="V233" s="5" t="s">
         <v>922</v>
       </c>
     </row>
@@ -19869,44 +19827,42 @@
       <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="5" t="s">
         <v>1482</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2" t="s">
+      <c r="C238" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K238" s="2"/>
-      <c r="L238" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M238" s="2" t="s">
+      <c r="K238" s="5"/>
+      <c r="L238" s="7"/>
+      <c r="M238" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N238" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2" t="s">
+      <c r="N238" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O238" s="5"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="5"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V238" s="2"/>
+      <c r="V238" s="5"/>
     </row>
     <row r="239" spans="1:22">
       <c r="A239" s="2" t="s">
@@ -20071,44 +20027,42 @@
       <c r="V241" s="2"/>
     </row>
     <row r="242" spans="1:22">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="5" t="s">
         <v>1486</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2" t="s">
+      <c r="C242" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K242" s="2"/>
-      <c r="L242" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M242" s="2" t="s">
+      <c r="K242" s="5"/>
+      <c r="L242" s="7"/>
+      <c r="M242" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N242" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2" t="s">
+      <c r="N242" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="5"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V242" s="2"/>
+      <c r="V242" s="5"/>
     </row>
     <row r="243" spans="1:22">
       <c r="A243" s="2" t="s">
@@ -20620,9 +20574,7 @@
         <v>757</v>
       </c>
       <c r="K252" s="2"/>
-      <c r="L252" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L252" s="7"/>
       <c r="M252" s="2" t="s">
         <v>60</v>
       </c>
@@ -20777,44 +20729,42 @@
       <c r="V255" s="9"/>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="5" t="s">
         <v>1500</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2" t="s">
+      <c r="C256" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K256" s="2"/>
-      <c r="L256" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M256" s="2" t="s">
+      <c r="K256" s="5"/>
+      <c r="L256" s="7"/>
+      <c r="M256" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N256" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2" t="s">
+      <c r="N256" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O256" s="5"/>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+      <c r="S256" s="5"/>
+      <c r="T256" s="5"/>
+      <c r="U256" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V256" s="2"/>
+      <c r="V256" s="5"/>
     </row>
     <row r="257" spans="1:22">
       <c r="A257" s="2" t="s">
@@ -20975,46 +20925,44 @@
       <c r="V259" s="2"/>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="2" t="s">
+      <c r="A260" s="5" t="s">
         <v>1504</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2" t="s">
+      <c r="C260" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="K260" s="2" t="s">
+      <c r="K260" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="L260" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M260" s="2" t="s">
+      <c r="L260" s="7"/>
+      <c r="M260" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N260" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
-      <c r="Q260" s="2"/>
-      <c r="R260" s="2"/>
-      <c r="S260" s="2"/>
-      <c r="T260" s="2"/>
-      <c r="U260" s="2" t="s">
+      <c r="N260" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O260" s="5"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="S260" s="5"/>
+      <c r="T260" s="5"/>
+      <c r="U260" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="V260" s="2" t="s">
+      <c r="V260" s="5" t="s">
         <v>925</v>
       </c>
     </row>
@@ -21177,44 +21125,42 @@
       <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="2" t="s">
+      <c r="A264" s="5" t="s">
         <v>1508</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2" t="s">
+      <c r="C264" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K264" s="2"/>
-      <c r="L264" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M264" s="2" t="s">
+      <c r="K264" s="5"/>
+      <c r="L264" s="7"/>
+      <c r="M264" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N264" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2"/>
-      <c r="Q264" s="2"/>
-      <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
-      <c r="T264" s="2"/>
-      <c r="U264" s="2" t="s">
+      <c r="N264" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O264" s="5"/>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+      <c r="S264" s="5"/>
+      <c r="T264" s="5"/>
+      <c r="U264" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V264" s="2"/>
+      <c r="V264" s="5"/>
     </row>
     <row r="265" spans="1:22">
       <c r="A265" s="2" t="s">
@@ -21375,46 +21321,44 @@
       <c r="V267" s="2"/>
     </row>
     <row r="268" spans="1:22">
-      <c r="A268" s="2" t="s">
+      <c r="A268" s="5" t="s">
         <v>1511</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2" t="s">
+      <c r="C268" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+      <c r="I268" s="5"/>
+      <c r="J268" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="K268" s="2" t="s">
+      <c r="K268" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="L268" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M268" s="2" t="s">
+      <c r="L268" s="7"/>
+      <c r="M268" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N268" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
-      <c r="T268" s="2"/>
-      <c r="U268" s="2" t="s">
+      <c r="N268" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O268" s="5"/>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+      <c r="R268" s="5"/>
+      <c r="S268" s="5"/>
+      <c r="T268" s="5"/>
+      <c r="U268" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="V268" s="2" t="s">
+      <c r="V268" s="5" t="s">
         <v>926</v>
       </c>
     </row>
@@ -21685,46 +21629,44 @@
       </c>
     </row>
     <row r="274" spans="1:22">
-      <c r="A274" s="2" t="s">
+      <c r="A274" s="5" t="s">
         <v>1517</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2" t="s">
+      <c r="C274" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="K274" s="2" t="s">
+      <c r="K274" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="L274" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M274" s="2" t="s">
+      <c r="L274" s="7"/>
+      <c r="M274" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N274" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
-      <c r="Q274" s="2"/>
-      <c r="R274" s="2"/>
-      <c r="S274" s="2"/>
-      <c r="T274" s="2"/>
-      <c r="U274" s="2" t="s">
+      <c r="N274" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O274" s="5"/>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
+      <c r="R274" s="5"/>
+      <c r="S274" s="5"/>
+      <c r="T274" s="5"/>
+      <c r="U274" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="V274" s="2" t="s">
+      <c r="V274" s="5" t="s">
         <v>927</v>
       </c>
     </row>
@@ -21991,44 +21933,42 @@
       <c r="V279" s="2"/>
     </row>
     <row r="280" spans="1:22">
-      <c r="A280" s="2" t="s">
+      <c r="A280" s="5" t="s">
         <v>1523</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
-      <c r="J280" s="2" t="s">
+      <c r="C280" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="5"/>
+      <c r="F280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K280" s="2"/>
-      <c r="L280" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M280" s="2" t="s">
+      <c r="K280" s="5"/>
+      <c r="L280" s="7"/>
+      <c r="M280" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N280" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O280" s="2"/>
-      <c r="P280" s="2"/>
-      <c r="Q280" s="2"/>
-      <c r="R280" s="2"/>
-      <c r="S280" s="2"/>
-      <c r="T280" s="2"/>
-      <c r="U280" s="2" t="s">
+      <c r="N280" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O280" s="5"/>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
+      <c r="R280" s="5"/>
+      <c r="S280" s="5"/>
+      <c r="T280" s="5"/>
+      <c r="U280" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V280" s="2"/>
+      <c r="V280" s="5"/>
     </row>
     <row r="281" spans="1:22">
       <c r="A281" s="2" t="s">
@@ -22266,9 +22206,7 @@
         <v>757</v>
       </c>
       <c r="K285" s="2"/>
-      <c r="L285" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L285" s="7"/>
       <c r="M285" s="2" t="s">
         <v>80</v>
       </c>
@@ -22322,9 +22260,7 @@
         <v>757</v>
       </c>
       <c r="K286" s="2"/>
-      <c r="L286" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L286" s="7"/>
       <c r="M286" s="2" t="s">
         <v>80</v>
       </c>
@@ -22378,9 +22314,7 @@
         <v>757</v>
       </c>
       <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L287" s="7"/>
       <c r="M287" s="2" t="s">
         <v>80</v>
       </c>
@@ -22542,9 +22476,7 @@
         <v>806</v>
       </c>
       <c r="K290" s="2"/>
-      <c r="L290" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L290" s="7"/>
       <c r="M290" s="2" t="s">
         <v>81</v>
       </c>
@@ -22600,9 +22532,7 @@
       <c r="K291" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="L291" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L291" s="7"/>
       <c r="M291" s="2" t="s">
         <v>81</v>
       </c>
@@ -22631,44 +22561,42 @@
       </c>
     </row>
     <row r="292" spans="1:22">
-      <c r="A292" s="2" t="s">
+      <c r="A292" s="5" t="s">
         <v>1535</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-      <c r="J292" s="2" t="s">
+      <c r="C292" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K292" s="2"/>
-      <c r="L292" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M292" s="2" t="s">
+      <c r="K292" s="5"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N292" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O292" s="2"/>
-      <c r="P292" s="2"/>
-      <c r="Q292" s="2"/>
-      <c r="R292" s="2"/>
-      <c r="S292" s="2"/>
-      <c r="T292" s="2"/>
-      <c r="U292" s="2" t="s">
+      <c r="N292" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O292" s="5"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="5"/>
+      <c r="T292" s="5"/>
+      <c r="U292" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V292" s="2"/>
+      <c r="V292" s="5"/>
     </row>
     <row r="293" spans="1:22">
       <c r="A293" s="2" t="s">
@@ -22906,9 +22834,7 @@
         <v>757</v>
       </c>
       <c r="K297" s="2"/>
-      <c r="L297" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L297" s="7"/>
       <c r="M297" s="2" t="s">
         <v>82</v>
       </c>
@@ -22962,9 +22888,7 @@
         <v>757</v>
       </c>
       <c r="K298" s="2"/>
-      <c r="L298" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L298" s="7"/>
       <c r="M298" s="2" t="s">
         <v>82</v>
       </c>
@@ -22991,44 +22915,42 @@
       <c r="V298" s="2"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2" t="s">
+      <c r="C299" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D299" s="5"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K299" s="2"/>
-      <c r="L299" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M299" s="2" t="s">
+      <c r="K299" s="5"/>
+      <c r="L299" s="7"/>
+      <c r="M299" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N299" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
-      <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
-      <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
-      <c r="U299" s="2" t="s">
+      <c r="N299" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O299" s="5"/>
+      <c r="P299" s="5"/>
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+      <c r="S299" s="5"/>
+      <c r="T299" s="5"/>
+      <c r="U299" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V299" s="2"/>
+      <c r="V299" s="5"/>
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="2" t="s">
@@ -23220,9 +23142,7 @@
         <v>757</v>
       </c>
       <c r="K303" s="2"/>
-      <c r="L303" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L303" s="7"/>
       <c r="M303" s="2" t="s">
         <v>83</v>
       </c>
@@ -23249,44 +23169,42 @@
       <c r="V303" s="2"/>
     </row>
     <row r="304" spans="1:22">
-      <c r="A304" s="2" t="s">
+      <c r="A304" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C304" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
-      <c r="G304" s="2"/>
-      <c r="H304" s="2"/>
-      <c r="I304" s="2"/>
-      <c r="J304" s="2" t="s">
+      <c r="C304" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
+      <c r="I304" s="5"/>
+      <c r="J304" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K304" s="2"/>
-      <c r="L304" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M304" s="2" t="s">
+      <c r="K304" s="5"/>
+      <c r="L304" s="7"/>
+      <c r="M304" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N304" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O304" s="2"/>
-      <c r="P304" s="2"/>
-      <c r="Q304" s="2"/>
-      <c r="R304" s="2"/>
-      <c r="S304" s="2"/>
-      <c r="T304" s="2"/>
-      <c r="U304" s="2" t="s">
+      <c r="N304" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O304" s="5"/>
+      <c r="P304" s="5"/>
+      <c r="Q304" s="5"/>
+      <c r="R304" s="5"/>
+      <c r="S304" s="5"/>
+      <c r="T304" s="5"/>
+      <c r="U304" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V304" s="2"/>
+      <c r="V304" s="5"/>
     </row>
     <row r="305" spans="1:22">
       <c r="A305" s="2" t="s">
@@ -23420,9 +23338,7 @@
         <v>757</v>
       </c>
       <c r="K307" s="2"/>
-      <c r="L307" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L307" s="7"/>
       <c r="M307" s="2" t="s">
         <v>84</v>
       </c>
@@ -23584,9 +23500,7 @@
         <v>810</v>
       </c>
       <c r="K310" s="2"/>
-      <c r="L310" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L310" s="7"/>
       <c r="M310" s="2" t="s">
         <v>85</v>
       </c>
@@ -23613,46 +23527,44 @@
       <c r="V310" s="2"/>
     </row>
     <row r="311" spans="1:22">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="5" t="s">
         <v>1552</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C311" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-      <c r="J311" s="2" t="s">
+      <c r="C311" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D311" s="5"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="K311" s="2" t="s">
+      <c r="K311" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="L311" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M311" s="2" t="s">
+      <c r="L311" s="7"/>
+      <c r="M311" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N311" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
-      <c r="Q311" s="2"/>
-      <c r="R311" s="2"/>
-      <c r="S311" s="2"/>
-      <c r="T311" s="2"/>
-      <c r="U311" s="2" t="s">
+      <c r="N311" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O311" s="5"/>
+      <c r="P311" s="5"/>
+      <c r="Q311" s="5"/>
+      <c r="R311" s="5"/>
+      <c r="S311" s="5"/>
+      <c r="T311" s="5"/>
+      <c r="U311" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="V311" s="2" t="s">
+      <c r="V311" s="5" t="s">
         <v>931</v>
       </c>
     </row>
@@ -23892,9 +23804,7 @@
         <v>757</v>
       </c>
       <c r="K316" s="2"/>
-      <c r="L316" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L316" s="7"/>
       <c r="M316" s="2" t="s">
         <v>86</v>
       </c>
@@ -24056,9 +23966,7 @@
         <v>760</v>
       </c>
       <c r="K319" s="2"/>
-      <c r="L319" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L319" s="7"/>
       <c r="M319" s="2" t="s">
         <v>87</v>
       </c>
@@ -24112,9 +24020,7 @@
         <v>760</v>
       </c>
       <c r="K320" s="2"/>
-      <c r="L320" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L320" s="7"/>
       <c r="M320" s="2" t="s">
         <v>87</v>
       </c>
@@ -24168,9 +24074,7 @@
         <v>760</v>
       </c>
       <c r="K321" s="2"/>
-      <c r="L321" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L321" s="7"/>
       <c r="M321" s="2" t="s">
         <v>87</v>
       </c>
@@ -24197,44 +24101,42 @@
       <c r="V321" s="2"/>
     </row>
     <row r="322" spans="1:22">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="5" t="s">
         <v>1563</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
-      <c r="J322" s="2" t="s">
+      <c r="C322" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
+      <c r="I322" s="5"/>
+      <c r="J322" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K322" s="2"/>
-      <c r="L322" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M322" s="2" t="s">
+      <c r="K322" s="5"/>
+      <c r="L322" s="7"/>
+      <c r="M322" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N322" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" s="2"/>
-      <c r="R322" s="2"/>
-      <c r="S322" s="2"/>
-      <c r="T322" s="2"/>
-      <c r="U322" s="2" t="s">
+      <c r="N322" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O322" s="5"/>
+      <c r="P322" s="5"/>
+      <c r="Q322" s="5"/>
+      <c r="R322" s="5"/>
+      <c r="S322" s="5"/>
+      <c r="T322" s="5"/>
+      <c r="U322" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V322" s="2"/>
+      <c r="V322" s="5"/>
     </row>
     <row r="323" spans="1:22">
       <c r="A323" s="2" t="s">
@@ -24368,9 +24270,7 @@
         <v>757</v>
       </c>
       <c r="K325" s="2"/>
-      <c r="L325" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L325" s="7"/>
       <c r="M325" s="2" t="s">
         <v>88</v>
       </c>
@@ -24397,44 +24297,42 @@
       <c r="V325" s="2"/>
     </row>
     <row r="326" spans="1:22">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="5" t="s">
         <v>1567</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="F326" s="2"/>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
-      <c r="J326" s="2" t="s">
+      <c r="C326" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D326" s="5"/>
+      <c r="E326" s="5"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
+      <c r="I326" s="5"/>
+      <c r="J326" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K326" s="2"/>
-      <c r="L326" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M326" s="2" t="s">
+      <c r="K326" s="5"/>
+      <c r="L326" s="7"/>
+      <c r="M326" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N326" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="Q326" s="2"/>
-      <c r="R326" s="2"/>
-      <c r="S326" s="2"/>
-      <c r="T326" s="2"/>
-      <c r="U326" s="2" t="s">
+      <c r="N326" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O326" s="5"/>
+      <c r="P326" s="5"/>
+      <c r="Q326" s="5"/>
+      <c r="R326" s="5"/>
+      <c r="S326" s="5"/>
+      <c r="T326" s="5"/>
+      <c r="U326" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V326" s="2"/>
+      <c r="V326" s="5"/>
     </row>
     <row r="327" spans="1:22">
       <c r="A327" s="2" t="s">
@@ -24730,9 +24628,7 @@
         <v>757</v>
       </c>
       <c r="K332" s="2"/>
-      <c r="L332" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L332" s="7"/>
       <c r="M332" s="2" t="s">
         <v>90</v>
       </c>
@@ -24950,9 +24846,7 @@
       <c r="K336" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="L336" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L336" s="7"/>
       <c r="M336" s="2" t="s">
         <v>91</v>
       </c>
@@ -25170,9 +25064,7 @@
         <v>757</v>
       </c>
       <c r="K340" s="2"/>
-      <c r="L340" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L340" s="7"/>
       <c r="M340" s="2" t="s">
         <v>92</v>
       </c>
@@ -25388,9 +25280,7 @@
         <v>757</v>
       </c>
       <c r="K344" s="2"/>
-      <c r="L344" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L344" s="7"/>
       <c r="M344" s="2" t="s">
         <v>93</v>
       </c>
@@ -25417,44 +25307,42 @@
       <c r="V344" s="2"/>
     </row>
     <row r="345" spans="1:22">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="5" t="s">
         <v>1586</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="F345" s="2"/>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-      <c r="I345" s="2"/>
-      <c r="J345" s="2" t="s">
+      <c r="C345" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D345" s="5"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
+      <c r="I345" s="5"/>
+      <c r="J345" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K345" s="2"/>
-      <c r="L345" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M345" s="2" t="s">
+      <c r="K345" s="5"/>
+      <c r="L345" s="7"/>
+      <c r="M345" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N345" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O345" s="2"/>
-      <c r="P345" s="2"/>
-      <c r="Q345" s="2"/>
-      <c r="R345" s="2"/>
-      <c r="S345" s="2"/>
-      <c r="T345" s="2"/>
-      <c r="U345" s="2" t="s">
+      <c r="N345" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O345" s="5"/>
+      <c r="P345" s="5"/>
+      <c r="Q345" s="5"/>
+      <c r="R345" s="5"/>
+      <c r="S345" s="5"/>
+      <c r="T345" s="5"/>
+      <c r="U345" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V345" s="2"/>
+      <c r="V345" s="5"/>
     </row>
     <row r="346" spans="1:22">
       <c r="A346" s="2" t="s">
@@ -25646,9 +25534,7 @@
         <v>757</v>
       </c>
       <c r="K349" s="2"/>
-      <c r="L349" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L349" s="7"/>
       <c r="M349" s="2" t="s">
         <v>94</v>
       </c>
@@ -25702,9 +25588,7 @@
         <v>757</v>
       </c>
       <c r="K350" s="2"/>
-      <c r="L350" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L350" s="7"/>
       <c r="M350" s="2" t="s">
         <v>94</v>
       </c>
@@ -25731,44 +25615,42 @@
       <c r="V350" s="2"/>
     </row>
     <row r="351" spans="1:22">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="5" t="s">
         <v>1592</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
-      <c r="F351" s="2"/>
-      <c r="G351" s="2"/>
-      <c r="H351" s="2"/>
-      <c r="I351" s="2"/>
-      <c r="J351" s="2" t="s">
+      <c r="C351" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D351" s="5"/>
+      <c r="E351" s="5"/>
+      <c r="F351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K351" s="2"/>
-      <c r="L351" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M351" s="2" t="s">
+      <c r="K351" s="5"/>
+      <c r="L351" s="7"/>
+      <c r="M351" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N351" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O351" s="2"/>
-      <c r="P351" s="2"/>
-      <c r="Q351" s="2"/>
-      <c r="R351" s="2"/>
-      <c r="S351" s="2"/>
-      <c r="T351" s="2"/>
-      <c r="U351" s="2" t="s">
+      <c r="N351" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O351" s="5"/>
+      <c r="P351" s="5"/>
+      <c r="Q351" s="5"/>
+      <c r="R351" s="5"/>
+      <c r="S351" s="5"/>
+      <c r="T351" s="5"/>
+      <c r="U351" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V351" s="2"/>
+      <c r="V351" s="5"/>
     </row>
     <row r="352" spans="1:22">
       <c r="A352" s="2" t="s">
@@ -25933,46 +25815,44 @@
       <c r="V354" s="2"/>
     </row>
     <row r="355" spans="1:22">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="5" t="s">
         <v>1596</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="F355" s="2"/>
-      <c r="G355" s="2"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-      <c r="J355" s="2" t="s">
+      <c r="D355" s="5"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="K355" s="2" t="s">
+      <c r="K355" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="L355" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M355" s="2" t="s">
+      <c r="L355" s="7"/>
+      <c r="M355" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="N355" s="2" t="s">
+      <c r="N355" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O355" s="2"/>
-      <c r="P355" s="2"/>
-      <c r="Q355" s="2"/>
-      <c r="R355" s="2"/>
-      <c r="S355" s="2"/>
-      <c r="T355" s="2"/>
-      <c r="U355" s="2" t="s">
+      <c r="O355" s="5"/>
+      <c r="P355" s="5"/>
+      <c r="Q355" s="5"/>
+      <c r="R355" s="5"/>
+      <c r="S355" s="5"/>
+      <c r="T355" s="5"/>
+      <c r="U355" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="V355" s="2" t="s">
+      <c r="V355" s="5" t="s">
         <v>934</v>
       </c>
     </row>
@@ -26330,9 +26210,7 @@
       <c r="K362" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="L362" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L362" s="7"/>
       <c r="M362" s="2" t="s">
         <v>97</v>
       </c>
@@ -26625,44 +26503,42 @@
       <c r="V367" s="2"/>
     </row>
     <row r="368" spans="1:22">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="F368" s="2"/>
-      <c r="G368" s="2"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
-      <c r="J368" s="2" t="s">
+      <c r="D368" s="5"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
+      <c r="I368" s="5"/>
+      <c r="J368" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K368" s="2"/>
-      <c r="L368" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M368" s="2" t="s">
+      <c r="K368" s="5"/>
+      <c r="L368" s="7"/>
+      <c r="M368" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N368" s="2" t="s">
+      <c r="N368" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
-      <c r="Q368" s="2"/>
-      <c r="R368" s="2"/>
-      <c r="S368" s="2"/>
-      <c r="T368" s="2"/>
-      <c r="U368" s="2" t="s">
+      <c r="O368" s="5"/>
+      <c r="P368" s="5"/>
+      <c r="Q368" s="5"/>
+      <c r="R368" s="5"/>
+      <c r="S368" s="5"/>
+      <c r="T368" s="5"/>
+      <c r="U368" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V368" s="2"/>
+      <c r="V368" s="5"/>
     </row>
     <row r="369" spans="1:22">
       <c r="A369" s="2" t="s">
@@ -26885,44 +26761,42 @@
       <c r="V372" s="2"/>
     </row>
     <row r="373" spans="1:22">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2" t="s">
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K373" s="2"/>
-      <c r="L373" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M373" s="2" t="s">
+      <c r="K373" s="5"/>
+      <c r="L373" s="7"/>
+      <c r="M373" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N373" s="2" t="s">
+      <c r="N373" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="S373" s="2"/>
-      <c r="T373" s="2"/>
-      <c r="U373" s="2" t="s">
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V373" s="2"/>
+      <c r="V373" s="5"/>
     </row>
     <row r="374" spans="1:22">
       <c r="A374" s="2" t="s">
@@ -27056,9 +26930,7 @@
         <v>757</v>
       </c>
       <c r="K376" s="2"/>
-      <c r="L376" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L376" s="7"/>
       <c r="M376" s="2" t="s">
         <v>100</v>
       </c>
@@ -27112,9 +26984,7 @@
         <v>757</v>
       </c>
       <c r="K377" s="2"/>
-      <c r="L377" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L377" s="7"/>
       <c r="M377" s="2" t="s">
         <v>100</v>
       </c>
@@ -27257,46 +27127,44 @@
       <c r="V379" s="2"/>
     </row>
     <row r="380" spans="1:22">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="5" t="s">
         <v>1621</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
-      <c r="H380" s="2"/>
-      <c r="I380" s="2"/>
-      <c r="J380" s="2" t="s">
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="K380" s="2" t="s">
+      <c r="K380" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="L380" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M380" s="2" t="s">
+      <c r="L380" s="7"/>
+      <c r="M380" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N380" s="2" t="s">
+      <c r="N380" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
-      <c r="Q380" s="2"/>
-      <c r="R380" s="2"/>
-      <c r="S380" s="2"/>
-      <c r="T380" s="2"/>
-      <c r="U380" s="2" t="s">
+      <c r="O380" s="5"/>
+      <c r="P380" s="5"/>
+      <c r="Q380" s="5"/>
+      <c r="R380" s="5"/>
+      <c r="S380" s="5"/>
+      <c r="T380" s="5"/>
+      <c r="U380" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="V380" s="2" t="s">
+      <c r="V380" s="5" t="s">
         <v>941</v>
       </c>
     </row>
@@ -27459,46 +27327,44 @@
       <c r="V383" s="2"/>
     </row>
     <row r="384" spans="1:22">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="5" t="s">
         <v>1625</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
-      <c r="H384" s="2"/>
-      <c r="I384" s="2"/>
-      <c r="J384" s="2" t="s">
+      <c r="C384" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D384" s="5"/>
+      <c r="E384" s="5"/>
+      <c r="F384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
+      <c r="I384" s="5"/>
+      <c r="J384" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="K384" s="2" t="s">
+      <c r="K384" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="L384" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M384" s="2" t="s">
+      <c r="L384" s="7"/>
+      <c r="M384" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N384" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O384" s="2"/>
-      <c r="P384" s="2"/>
-      <c r="Q384" s="2"/>
-      <c r="R384" s="2"/>
-      <c r="S384" s="2"/>
-      <c r="T384" s="2"/>
-      <c r="U384" s="2" t="s">
+      <c r="N384" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O384" s="5"/>
+      <c r="P384" s="5"/>
+      <c r="Q384" s="5"/>
+      <c r="R384" s="5"/>
+      <c r="S384" s="5"/>
+      <c r="T384" s="5"/>
+      <c r="U384" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="V384" s="2" t="s">
+      <c r="V384" s="5" t="s">
         <v>941</v>
       </c>
     </row>
@@ -28043,44 +27909,42 @@
       <c r="V396" s="9"/>
     </row>
     <row r="397" spans="1:22">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="5" t="s">
         <v>1638</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C397" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-      <c r="H397" s="2"/>
-      <c r="I397" s="2"/>
-      <c r="J397" s="2" t="s">
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5"/>
+      <c r="J397" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K397" s="2"/>
-      <c r="L397" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M397" s="2" t="s">
+      <c r="K397" s="5"/>
+      <c r="L397" s="7"/>
+      <c r="M397" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N397" s="2" t="s">
+      <c r="N397" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O397" s="2"/>
-      <c r="P397" s="2"/>
-      <c r="Q397" s="2"/>
-      <c r="R397" s="2"/>
-      <c r="S397" s="2"/>
-      <c r="T397" s="2"/>
-      <c r="U397" s="2" t="s">
+      <c r="O397" s="5"/>
+      <c r="P397" s="5"/>
+      <c r="Q397" s="5"/>
+      <c r="R397" s="5"/>
+      <c r="S397" s="5"/>
+      <c r="T397" s="5"/>
+      <c r="U397" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V397" s="2"/>
+      <c r="V397" s="5"/>
     </row>
     <row r="398" spans="1:22">
       <c r="A398" s="2" t="s">
@@ -28569,46 +28433,44 @@
       <c r="V406" s="2"/>
     </row>
     <row r="407" spans="1:22">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="5" t="s">
         <v>1648</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D407" s="2"/>
-      <c r="E407" s="2"/>
-      <c r="F407" s="2"/>
-      <c r="G407" s="2"/>
-      <c r="H407" s="2"/>
-      <c r="I407" s="2"/>
-      <c r="J407" s="2" t="s">
+      <c r="C407" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="K407" s="2" t="s">
+      <c r="K407" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="L407" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M407" s="2" t="s">
+      <c r="L407" s="7"/>
+      <c r="M407" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N407" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O407" s="2"/>
-      <c r="P407" s="2"/>
-      <c r="Q407" s="2"/>
-      <c r="R407" s="2"/>
-      <c r="S407" s="2"/>
-      <c r="T407" s="2"/>
-      <c r="U407" s="2" t="s">
+      <c r="N407" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O407" s="5"/>
+      <c r="P407" s="5"/>
+      <c r="Q407" s="5"/>
+      <c r="R407" s="5"/>
+      <c r="S407" s="5"/>
+      <c r="T407" s="5"/>
+      <c r="U407" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="V407" s="2" t="s">
+      <c r="V407" s="5" t="s">
         <v>944</v>
       </c>
     </row>
@@ -28848,9 +28710,7 @@
         <v>757</v>
       </c>
       <c r="K412" s="2"/>
-      <c r="L412" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L412" s="7"/>
       <c r="M412" s="2" t="s">
         <v>105</v>
       </c>
@@ -28904,9 +28764,7 @@
         <v>757</v>
       </c>
       <c r="K413" s="2"/>
-      <c r="L413" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L413" s="7"/>
       <c r="M413" s="2" t="s">
         <v>105</v>
       </c>
@@ -28960,9 +28818,7 @@
         <v>757</v>
       </c>
       <c r="K414" s="2"/>
-      <c r="L414" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L414" s="7"/>
       <c r="M414" s="2" t="s">
         <v>105</v>
       </c>
@@ -28989,46 +28845,44 @@
       <c r="V414" s="2"/>
     </row>
     <row r="415" spans="1:22">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="F415" s="2"/>
-      <c r="G415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="J415" s="2" t="s">
+      <c r="C415" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="K415" s="2" t="s">
+      <c r="K415" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="L415" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M415" s="2" t="s">
+      <c r="L415" s="7"/>
+      <c r="M415" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N415" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O415" s="2"/>
-      <c r="P415" s="2"/>
-      <c r="Q415" s="2"/>
-      <c r="R415" s="2"/>
-      <c r="S415" s="2"/>
-      <c r="T415" s="2"/>
-      <c r="U415" s="2" t="s">
+      <c r="N415" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O415" s="5"/>
+      <c r="P415" s="5"/>
+      <c r="Q415" s="5"/>
+      <c r="R415" s="5"/>
+      <c r="S415" s="5"/>
+      <c r="T415" s="5"/>
+      <c r="U415" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="V415" s="2" t="s">
+      <c r="V415" s="5" t="s">
         <v>945</v>
       </c>
     </row>
@@ -29505,44 +29359,42 @@
       <c r="V426" s="9"/>
     </row>
     <row r="427" spans="1:22">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="F427" s="2"/>
-      <c r="G427" s="2"/>
-      <c r="H427" s="2"/>
-      <c r="I427" s="2"/>
-      <c r="J427" s="2" t="s">
+      <c r="C427" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K427" s="2"/>
-      <c r="L427" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M427" s="2" t="s">
+      <c r="K427" s="5"/>
+      <c r="L427" s="7"/>
+      <c r="M427" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="N427" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O427" s="2"/>
-      <c r="P427" s="2"/>
-      <c r="Q427" s="2"/>
-      <c r="R427" s="2"/>
-      <c r="S427" s="2"/>
-      <c r="T427" s="2"/>
-      <c r="U427" s="2" t="s">
+      <c r="N427" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O427" s="5"/>
+      <c r="P427" s="5"/>
+      <c r="Q427" s="5"/>
+      <c r="R427" s="5"/>
+      <c r="S427" s="5"/>
+      <c r="T427" s="5"/>
+      <c r="U427" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V427" s="2"/>
+      <c r="V427" s="5"/>
     </row>
     <row r="428" spans="1:22">
       <c r="A428" s="2" t="s">
@@ -29780,9 +29632,7 @@
         <v>829</v>
       </c>
       <c r="K432" s="2"/>
-      <c r="L432" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L432" s="7"/>
       <c r="M432" s="2" t="s">
         <v>64</v>
       </c>
@@ -29836,9 +29686,7 @@
         <v>830</v>
       </c>
       <c r="K433" s="2"/>
-      <c r="L433" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L433" s="7"/>
       <c r="M433" s="2" t="s">
         <v>64</v>
       </c>
@@ -29892,9 +29740,7 @@
         <v>831</v>
       </c>
       <c r="K434" s="2"/>
-      <c r="L434" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L434" s="7"/>
       <c r="M434" s="2" t="s">
         <v>64</v>
       </c>
@@ -29948,9 +29794,7 @@
         <v>832</v>
       </c>
       <c r="K435" s="2"/>
-      <c r="L435" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L435" s="7"/>
       <c r="M435" s="2" t="s">
         <v>64</v>
       </c>
@@ -29977,46 +29821,44 @@
       <c r="V435" s="2"/>
     </row>
     <row r="436" spans="1:22">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="5" t="s">
         <v>1677</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C436" s="2" t="s">
+      <c r="C436" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="F436" s="2"/>
-      <c r="G436" s="2"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="2"/>
-      <c r="J436" s="2" t="s">
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="K436" s="2" t="s">
+      <c r="K436" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="L436" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M436" s="2" t="s">
+      <c r="L436" s="7"/>
+      <c r="M436" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N436" s="2" t="s">
+      <c r="N436" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O436" s="2"/>
-      <c r="P436" s="2"/>
-      <c r="Q436" s="2"/>
-      <c r="R436" s="2"/>
-      <c r="S436" s="2"/>
-      <c r="T436" s="2"/>
-      <c r="U436" s="2" t="s">
+      <c r="O436" s="5"/>
+      <c r="P436" s="5"/>
+      <c r="Q436" s="5"/>
+      <c r="R436" s="5"/>
+      <c r="S436" s="5"/>
+      <c r="T436" s="5"/>
+      <c r="U436" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="V436" s="2" t="s">
+      <c r="V436" s="5" t="s">
         <v>928</v>
       </c>
     </row>
@@ -30503,44 +30345,42 @@
       <c r="V445" s="2"/>
     </row>
     <row r="446" spans="1:22">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="5" t="s">
         <v>1687</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D446" s="2"/>
-      <c r="E446" s="2"/>
-      <c r="F446" s="2"/>
-      <c r="G446" s="2"/>
-      <c r="H446" s="2"/>
-      <c r="I446" s="2"/>
-      <c r="J446" s="2" t="s">
+      <c r="C446" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D446" s="5"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
+      <c r="I446" s="5"/>
+      <c r="J446" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K446" s="2"/>
-      <c r="L446" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M446" s="2" t="s">
+      <c r="K446" s="5"/>
+      <c r="L446" s="7"/>
+      <c r="M446" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N446" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O446" s="2"/>
-      <c r="P446" s="2"/>
-      <c r="Q446" s="2"/>
-      <c r="R446" s="2"/>
-      <c r="S446" s="2"/>
-      <c r="T446" s="2"/>
-      <c r="U446" s="2" t="s">
+      <c r="N446" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O446" s="5"/>
+      <c r="P446" s="5"/>
+      <c r="Q446" s="5"/>
+      <c r="R446" s="5"/>
+      <c r="S446" s="5"/>
+      <c r="T446" s="5"/>
+      <c r="U446" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V446" s="2"/>
+      <c r="V446" s="5"/>
     </row>
     <row r="447" spans="1:22">
       <c r="A447" s="2" t="s">
@@ -36675,44 +36515,42 @@
       <c r="V594" s="9"/>
     </row>
     <row r="595" spans="1:22">
-      <c r="A595" s="2" t="s">
+      <c r="A595" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B595" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C595" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D595" s="2"/>
-      <c r="E595" s="2"/>
-      <c r="F595" s="2"/>
-      <c r="G595" s="2"/>
-      <c r="H595" s="2"/>
-      <c r="I595" s="2"/>
-      <c r="J595" s="2" t="s">
+      <c r="C595" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D595" s="5"/>
+      <c r="E595" s="5"/>
+      <c r="F595" s="5"/>
+      <c r="G595" s="5"/>
+      <c r="H595" s="5"/>
+      <c r="I595" s="5"/>
+      <c r="J595" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K595" s="2"/>
-      <c r="L595" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M595" s="2" t="s">
+      <c r="K595" s="5"/>
+      <c r="L595" s="7"/>
+      <c r="M595" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N595" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O595" s="2"/>
-      <c r="P595" s="2"/>
-      <c r="Q595" s="2"/>
-      <c r="R595" s="2"/>
-      <c r="S595" s="2"/>
-      <c r="T595" s="2"/>
-      <c r="U595" s="2" t="s">
+      <c r="N595" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O595" s="5"/>
+      <c r="P595" s="5"/>
+      <c r="Q595" s="5"/>
+      <c r="R595" s="5"/>
+      <c r="S595" s="5"/>
+      <c r="T595" s="5"/>
+      <c r="U595" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V595" s="2"/>
+      <c r="V595" s="5"/>
     </row>
     <row r="596" spans="1:22">
       <c r="A596" s="2" t="s">
@@ -41623,44 +41461,42 @@
       <c r="V717" s="9"/>
     </row>
     <row r="718" spans="1:22">
-      <c r="A718" s="2" t="s">
+      <c r="A718" s="5" t="s">
         <v>1958</v>
       </c>
-      <c r="B718" s="2" t="s">
+      <c r="B718" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C718" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D718" s="2"/>
-      <c r="E718" s="2"/>
-      <c r="F718" s="2"/>
-      <c r="G718" s="2"/>
-      <c r="H718" s="2"/>
-      <c r="I718" s="2"/>
-      <c r="J718" s="2" t="s">
+      <c r="C718" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D718" s="5"/>
+      <c r="E718" s="5"/>
+      <c r="F718" s="5"/>
+      <c r="G718" s="5"/>
+      <c r="H718" s="5"/>
+      <c r="I718" s="5"/>
+      <c r="J718" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K718" s="2"/>
-      <c r="L718" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M718" s="2" t="s">
+      <c r="K718" s="5"/>
+      <c r="L718" s="7"/>
+      <c r="M718" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N718" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O718" s="2"/>
-      <c r="P718" s="2"/>
-      <c r="Q718" s="2"/>
-      <c r="R718" s="2"/>
-      <c r="S718" s="2"/>
-      <c r="T718" s="2"/>
-      <c r="U718" s="2" t="s">
+      <c r="N718" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O718" s="5"/>
+      <c r="P718" s="5"/>
+      <c r="Q718" s="5"/>
+      <c r="R718" s="5"/>
+      <c r="S718" s="5"/>
+      <c r="T718" s="5"/>
+      <c r="U718" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V718" s="2"/>
+      <c r="V718" s="5"/>
     </row>
     <row r="719" spans="1:22">
       <c r="A719" s="2" t="s">
@@ -43797,44 +43633,42 @@
       <c r="V768" s="2"/>
     </row>
     <row r="769" spans="1:22">
-      <c r="A769" s="2" t="s">
+      <c r="A769" s="5" t="s">
         <v>2008</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="B769" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C769" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D769" s="2"/>
-      <c r="E769" s="2"/>
-      <c r="F769" s="2"/>
-      <c r="G769" s="2"/>
-      <c r="H769" s="2"/>
-      <c r="I769" s="2"/>
-      <c r="J769" s="2" t="s">
+      <c r="C769" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D769" s="5"/>
+      <c r="E769" s="5"/>
+      <c r="F769" s="5"/>
+      <c r="G769" s="5"/>
+      <c r="H769" s="5"/>
+      <c r="I769" s="5"/>
+      <c r="J769" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K769" s="2"/>
-      <c r="L769" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M769" s="2" t="s">
+      <c r="K769" s="5"/>
+      <c r="L769" s="7"/>
+      <c r="M769" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N769" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O769" s="2"/>
-      <c r="P769" s="2"/>
-      <c r="Q769" s="2"/>
-      <c r="R769" s="2"/>
-      <c r="S769" s="2"/>
-      <c r="T769" s="2"/>
-      <c r="U769" s="2" t="s">
+      <c r="N769" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O769" s="5"/>
+      <c r="P769" s="5"/>
+      <c r="Q769" s="5"/>
+      <c r="R769" s="5"/>
+      <c r="S769" s="5"/>
+      <c r="T769" s="5"/>
+      <c r="U769" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V769" s="2"/>
+      <c r="V769" s="5"/>
     </row>
     <row r="770" spans="1:22">
       <c r="A770" s="2" t="s">
@@ -44072,9 +43906,7 @@
         <v>757</v>
       </c>
       <c r="K774" s="2"/>
-      <c r="L774" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L774" s="7"/>
       <c r="M774" s="2" t="s">
         <v>140</v>
       </c>
@@ -44128,9 +43960,7 @@
         <v>757</v>
       </c>
       <c r="K775" s="2"/>
-      <c r="L775" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L775" s="7"/>
       <c r="M775" s="2" t="s">
         <v>140</v>
       </c>
@@ -44184,9 +44014,7 @@
         <v>757</v>
       </c>
       <c r="K776" s="2"/>
-      <c r="L776" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L776" s="7"/>
       <c r="M776" s="2" t="s">
         <v>140</v>
       </c>
@@ -44213,46 +44041,44 @@
       <c r="V776" s="2"/>
     </row>
     <row r="777" spans="1:22">
-      <c r="A777" s="2" t="s">
+      <c r="A777" s="5" t="s">
         <v>2016</v>
       </c>
-      <c r="B777" s="2" t="s">
+      <c r="B777" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C777" s="2" t="s">
+      <c r="C777" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D777" s="2"/>
-      <c r="E777" s="2"/>
-      <c r="F777" s="2"/>
-      <c r="G777" s="2"/>
-      <c r="H777" s="2"/>
-      <c r="I777" s="2"/>
-      <c r="J777" s="2" t="s">
+      <c r="D777" s="5"/>
+      <c r="E777" s="5"/>
+      <c r="F777" s="5"/>
+      <c r="G777" s="5"/>
+      <c r="H777" s="5"/>
+      <c r="I777" s="5"/>
+      <c r="J777" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="K777" s="2" t="s">
+      <c r="K777" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="L777" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M777" s="2" t="s">
+      <c r="L777" s="7"/>
+      <c r="M777" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N777" s="2" t="s">
+      <c r="N777" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O777" s="2"/>
-      <c r="P777" s="2"/>
-      <c r="Q777" s="2"/>
-      <c r="R777" s="2"/>
-      <c r="S777" s="2"/>
-      <c r="T777" s="2"/>
-      <c r="U777" s="2" t="s">
+      <c r="O777" s="5"/>
+      <c r="P777" s="5"/>
+      <c r="Q777" s="5"/>
+      <c r="R777" s="5"/>
+      <c r="S777" s="5"/>
+      <c r="T777" s="5"/>
+      <c r="U777" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="V777" s="2" t="s">
+      <c r="V777" s="5" t="s">
         <v>965</v>
       </c>
     </row>
@@ -44685,44 +44511,42 @@
       <c r="V785" s="2"/>
     </row>
     <row r="786" spans="1:22">
-      <c r="A786" s="2" t="s">
+      <c r="A786" s="5" t="s">
         <v>2025</v>
       </c>
-      <c r="B786" s="2" t="s">
+      <c r="B786" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C786" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D786" s="2"/>
-      <c r="E786" s="2"/>
-      <c r="F786" s="2"/>
-      <c r="G786" s="2"/>
-      <c r="H786" s="2"/>
-      <c r="I786" s="2"/>
-      <c r="J786" s="2" t="s">
+      <c r="C786" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D786" s="5"/>
+      <c r="E786" s="5"/>
+      <c r="F786" s="5"/>
+      <c r="G786" s="5"/>
+      <c r="H786" s="5"/>
+      <c r="I786" s="5"/>
+      <c r="J786" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K786" s="2"/>
-      <c r="L786" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M786" s="2" t="s">
+      <c r="K786" s="5"/>
+      <c r="L786" s="7"/>
+      <c r="M786" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="N786" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O786" s="2"/>
-      <c r="P786" s="2"/>
-      <c r="Q786" s="2"/>
-      <c r="R786" s="2"/>
-      <c r="S786" s="2"/>
-      <c r="T786" s="2"/>
-      <c r="U786" s="2" t="s">
+      <c r="N786" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O786" s="5"/>
+      <c r="P786" s="5"/>
+      <c r="Q786" s="5"/>
+      <c r="R786" s="5"/>
+      <c r="S786" s="5"/>
+      <c r="T786" s="5"/>
+      <c r="U786" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V786" s="2"/>
+      <c r="V786" s="5"/>
     </row>
     <row r="787" spans="1:22">
       <c r="A787" s="2" t="s">
@@ -44960,9 +44784,7 @@
         <v>757</v>
       </c>
       <c r="K791" s="2"/>
-      <c r="L791" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L791" s="7"/>
       <c r="M791" s="2" t="s">
         <v>144</v>
       </c>
@@ -45016,9 +44838,7 @@
         <v>757</v>
       </c>
       <c r="K792" s="2"/>
-      <c r="L792" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L792" s="7"/>
       <c r="M792" s="2" t="s">
         <v>144</v>
       </c>
@@ -45072,9 +44892,7 @@
         <v>757</v>
       </c>
       <c r="K793" s="2"/>
-      <c r="L793" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L793" s="7"/>
       <c r="M793" s="2" t="s">
         <v>144</v>
       </c>
@@ -45128,9 +44946,7 @@
         <v>757</v>
       </c>
       <c r="K794" s="2"/>
-      <c r="L794" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L794" s="7"/>
       <c r="M794" s="2" t="s">
         <v>144</v>
       </c>
@@ -45184,9 +45000,7 @@
         <v>853</v>
       </c>
       <c r="K795" s="2"/>
-      <c r="L795" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L795" s="7"/>
       <c r="M795" s="2" t="s">
         <v>144</v>
       </c>
@@ -45240,9 +45054,7 @@
         <v>757</v>
       </c>
       <c r="K796" s="2"/>
-      <c r="L796" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L796" s="7"/>
       <c r="M796" s="2" t="s">
         <v>144</v>
       </c>
@@ -45354,9 +45166,7 @@
         <v>854</v>
       </c>
       <c r="K798" s="2"/>
-      <c r="L798" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L798" s="7"/>
       <c r="M798" s="2" t="s">
         <v>144</v>
       </c>
@@ -45410,9 +45220,7 @@
         <v>854</v>
       </c>
       <c r="K799" s="2"/>
-      <c r="L799" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L799" s="7"/>
       <c r="M799" s="2" t="s">
         <v>144</v>
       </c>
@@ -45466,9 +45274,7 @@
         <v>855</v>
       </c>
       <c r="K800" s="2"/>
-      <c r="L800" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L800" s="7"/>
       <c r="M800" s="2" t="s">
         <v>144</v>
       </c>
@@ -45524,9 +45330,7 @@
       <c r="K801" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="L801" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L801" s="7"/>
       <c r="M801" s="2" t="s">
         <v>144</v>
       </c>
@@ -45848,9 +45652,7 @@
         <v>757</v>
       </c>
       <c r="K807" s="2"/>
-      <c r="L807" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L807" s="7"/>
       <c r="M807" s="2" t="s">
         <v>146</v>
       </c>
@@ -45904,9 +45706,7 @@
         <v>757</v>
       </c>
       <c r="K808" s="2"/>
-      <c r="L808" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L808" s="7"/>
       <c r="M808" s="2" t="s">
         <v>146</v>
       </c>
@@ -46064,9 +45864,7 @@
         <v>757</v>
       </c>
       <c r="K811" s="2"/>
-      <c r="L811" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L811" s="7"/>
       <c r="M811" s="2" t="s">
         <v>147</v>
       </c>
@@ -46282,9 +46080,7 @@
         <v>757</v>
       </c>
       <c r="K815" s="2"/>
-      <c r="L815" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L815" s="7"/>
       <c r="M815" s="2" t="s">
         <v>148</v>
       </c>
@@ -46311,46 +46107,44 @@
       <c r="V815" s="2"/>
     </row>
     <row r="816" spans="1:22">
-      <c r="A816" s="2" t="s">
+      <c r="A816" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="B816" s="2" t="s">
+      <c r="B816" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C816" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D816" s="2"/>
-      <c r="E816" s="2"/>
-      <c r="F816" s="2"/>
-      <c r="G816" s="2"/>
-      <c r="H816" s="2"/>
-      <c r="I816" s="2"/>
-      <c r="J816" s="2" t="s">
+      <c r="C816" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D816" s="5"/>
+      <c r="E816" s="5"/>
+      <c r="F816" s="5"/>
+      <c r="G816" s="5"/>
+      <c r="H816" s="5"/>
+      <c r="I816" s="5"/>
+      <c r="J816" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="K816" s="2" t="s">
+      <c r="K816" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="L816" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M816" s="2" t="s">
+      <c r="L816" s="7"/>
+      <c r="M816" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N816" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O816" s="2"/>
-      <c r="P816" s="2"/>
-      <c r="Q816" s="2"/>
-      <c r="R816" s="2"/>
-      <c r="S816" s="2"/>
-      <c r="T816" s="2"/>
-      <c r="U816" s="2" t="s">
+      <c r="N816" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O816" s="5"/>
+      <c r="P816" s="5"/>
+      <c r="Q816" s="5"/>
+      <c r="R816" s="5"/>
+      <c r="S816" s="5"/>
+      <c r="T816" s="5"/>
+      <c r="U816" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="V816" s="2" t="s">
+      <c r="V816" s="5" t="s">
         <v>969</v>
       </c>
     </row>
@@ -46590,9 +46384,7 @@
         <v>757</v>
       </c>
       <c r="K821" s="2"/>
-      <c r="L821" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L821" s="7"/>
       <c r="M821" s="2" t="s">
         <v>149</v>
       </c>
@@ -46619,46 +46411,44 @@
       <c r="V821" s="2"/>
     </row>
     <row r="822" spans="1:22">
-      <c r="A822" s="2" t="s">
+      <c r="A822" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="B822" s="2" t="s">
+      <c r="B822" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C822" s="2" t="s">
+      <c r="C822" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D822" s="2"/>
-      <c r="E822" s="2"/>
-      <c r="F822" s="2"/>
-      <c r="G822" s="2"/>
-      <c r="H822" s="2"/>
-      <c r="I822" s="2"/>
-      <c r="J822" s="2" t="s">
+      <c r="D822" s="5"/>
+      <c r="E822" s="5"/>
+      <c r="F822" s="5"/>
+      <c r="G822" s="5"/>
+      <c r="H822" s="5"/>
+      <c r="I822" s="5"/>
+      <c r="J822" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="K822" s="2" t="s">
+      <c r="K822" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="L822" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M822" s="2" t="s">
+      <c r="L822" s="7"/>
+      <c r="M822" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N822" s="2" t="s">
+      <c r="N822" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O822" s="2"/>
-      <c r="P822" s="2"/>
-      <c r="Q822" s="2"/>
-      <c r="R822" s="2"/>
-      <c r="S822" s="2"/>
-      <c r="T822" s="2"/>
-      <c r="U822" s="2" t="s">
+      <c r="O822" s="5"/>
+      <c r="P822" s="5"/>
+      <c r="Q822" s="5"/>
+      <c r="R822" s="5"/>
+      <c r="S822" s="5"/>
+      <c r="T822" s="5"/>
+      <c r="U822" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="V822" s="2" t="s">
+      <c r="V822" s="5" t="s">
         <v>970</v>
       </c>
     </row>
@@ -46904,9 +46694,7 @@
       <c r="K827" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="L827" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L827" s="7"/>
       <c r="M827" s="2" t="s">
         <v>151</v>
       </c>
@@ -47533,46 +47321,44 @@
       <c r="V838" s="2"/>
     </row>
     <row r="839" spans="1:22">
-      <c r="A839" s="2" t="s">
+      <c r="A839" s="5" t="s">
         <v>2077</v>
       </c>
-      <c r="B839" s="2" t="s">
+      <c r="B839" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C839" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D839" s="2"/>
-      <c r="E839" s="2"/>
-      <c r="F839" s="2"/>
-      <c r="G839" s="2"/>
-      <c r="H839" s="2"/>
-      <c r="I839" s="2"/>
-      <c r="J839" s="2" t="s">
+      <c r="C839" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D839" s="5"/>
+      <c r="E839" s="5"/>
+      <c r="F839" s="5"/>
+      <c r="G839" s="5"/>
+      <c r="H839" s="5"/>
+      <c r="I839" s="5"/>
+      <c r="J839" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="K839" s="2" t="s">
+      <c r="K839" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="L839" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M839" s="2" t="s">
+      <c r="L839" s="7"/>
+      <c r="M839" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N839" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O839" s="2"/>
-      <c r="P839" s="2"/>
-      <c r="Q839" s="2"/>
-      <c r="R839" s="2"/>
-      <c r="S839" s="2"/>
-      <c r="T839" s="2"/>
-      <c r="U839" s="2" t="s">
+      <c r="N839" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O839" s="5"/>
+      <c r="P839" s="5"/>
+      <c r="Q839" s="5"/>
+      <c r="R839" s="5"/>
+      <c r="S839" s="5"/>
+      <c r="T839" s="5"/>
+      <c r="U839" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="V839" s="2" t="s">
+      <c r="V839" s="5" t="s">
         <v>975</v>
       </c>
     </row>
@@ -47812,9 +47598,7 @@
         <v>757</v>
       </c>
       <c r="K844" s="2"/>
-      <c r="L844" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L844" s="7"/>
       <c r="M844" s="2" t="s">
         <v>105</v>
       </c>
@@ -47868,9 +47652,7 @@
         <v>757</v>
       </c>
       <c r="K845" s="2"/>
-      <c r="L845" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L845" s="7"/>
       <c r="M845" s="2" t="s">
         <v>105</v>
       </c>
@@ -47924,9 +47706,7 @@
         <v>757</v>
       </c>
       <c r="K846" s="2"/>
-      <c r="L846" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L846" s="7"/>
       <c r="M846" s="2" t="s">
         <v>105</v>
       </c>
@@ -48469,46 +48249,44 @@
       <c r="V858" s="9"/>
     </row>
     <row r="859" spans="1:22">
-      <c r="A859" s="2" t="s">
+      <c r="A859" s="5" t="s">
         <v>2097</v>
       </c>
-      <c r="B859" s="2" t="s">
+      <c r="B859" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C859" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D859" s="2"/>
-      <c r="E859" s="2"/>
-      <c r="F859" s="2"/>
-      <c r="G859" s="2"/>
-      <c r="H859" s="2"/>
-      <c r="I859" s="2"/>
-      <c r="J859" s="2" t="s">
+      <c r="C859" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D859" s="5"/>
+      <c r="E859" s="5"/>
+      <c r="F859" s="5"/>
+      <c r="G859" s="5"/>
+      <c r="H859" s="5"/>
+      <c r="I859" s="5"/>
+      <c r="J859" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="K859" s="2" t="s">
+      <c r="K859" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="L859" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M859" s="2" t="s">
+      <c r="L859" s="7"/>
+      <c r="M859" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N859" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O859" s="2"/>
-      <c r="P859" s="2"/>
-      <c r="Q859" s="2"/>
-      <c r="R859" s="2"/>
-      <c r="S859" s="2"/>
-      <c r="T859" s="2"/>
-      <c r="U859" s="2" t="s">
+      <c r="N859" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O859" s="5"/>
+      <c r="P859" s="5"/>
+      <c r="Q859" s="5"/>
+      <c r="R859" s="5"/>
+      <c r="S859" s="5"/>
+      <c r="T859" s="5"/>
+      <c r="U859" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="V859" s="2" t="s">
+      <c r="V859" s="5" t="s">
         <v>977</v>
       </c>
     </row>
@@ -48829,46 +48607,44 @@
       <c r="V865" s="2"/>
     </row>
     <row r="866" spans="1:22">
-      <c r="A866" s="2" t="s">
+      <c r="A866" s="5" t="s">
         <v>2104</v>
       </c>
-      <c r="B866" s="2" t="s">
+      <c r="B866" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C866" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D866" s="2"/>
-      <c r="E866" s="2"/>
-      <c r="F866" s="2"/>
-      <c r="G866" s="2"/>
-      <c r="H866" s="2"/>
-      <c r="I866" s="2"/>
-      <c r="J866" s="2" t="s">
+      <c r="C866" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D866" s="5"/>
+      <c r="E866" s="5"/>
+      <c r="F866" s="5"/>
+      <c r="G866" s="5"/>
+      <c r="H866" s="5"/>
+      <c r="I866" s="5"/>
+      <c r="J866" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="K866" s="2" t="s">
+      <c r="K866" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="L866" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M866" s="2" t="s">
+      <c r="L866" s="7"/>
+      <c r="M866" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N866" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O866" s="2"/>
-      <c r="P866" s="2"/>
-      <c r="Q866" s="2"/>
-      <c r="R866" s="2"/>
-      <c r="S866" s="2"/>
-      <c r="T866" s="2"/>
-      <c r="U866" s="2" t="s">
+      <c r="N866" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O866" s="5"/>
+      <c r="P866" s="5"/>
+      <c r="Q866" s="5"/>
+      <c r="R866" s="5"/>
+      <c r="S866" s="5"/>
+      <c r="T866" s="5"/>
+      <c r="U866" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="V866" s="2" t="s">
+      <c r="V866" s="5" t="s">
         <v>978</v>
       </c>
     </row>
@@ -49229,46 +49005,44 @@
       <c r="V874" s="2"/>
     </row>
     <row r="875" spans="1:22">
-      <c r="A875" s="2" t="s">
+      <c r="A875" s="5" t="s">
         <v>2113</v>
       </c>
-      <c r="B875" s="2" t="s">
+      <c r="B875" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C875" s="2" t="s">
+      <c r="C875" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D875" s="2"/>
-      <c r="E875" s="2"/>
-      <c r="F875" s="2"/>
-      <c r="G875" s="2"/>
-      <c r="H875" s="2"/>
-      <c r="I875" s="2"/>
-      <c r="J875" s="2" t="s">
+      <c r="D875" s="5"/>
+      <c r="E875" s="5"/>
+      <c r="F875" s="5"/>
+      <c r="G875" s="5"/>
+      <c r="H875" s="5"/>
+      <c r="I875" s="5"/>
+      <c r="J875" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="K875" s="2" t="s">
+      <c r="K875" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="L875" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M875" s="2" t="s">
+      <c r="L875" s="7"/>
+      <c r="M875" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N875" s="2" t="s">
+      <c r="N875" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O875" s="2"/>
-      <c r="P875" s="2"/>
-      <c r="Q875" s="2"/>
-      <c r="R875" s="2"/>
-      <c r="S875" s="2"/>
-      <c r="T875" s="2"/>
-      <c r="U875" s="2" t="s">
+      <c r="O875" s="5"/>
+      <c r="P875" s="5"/>
+      <c r="Q875" s="5"/>
+      <c r="R875" s="5"/>
+      <c r="S875" s="5"/>
+      <c r="T875" s="5"/>
+      <c r="U875" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="V875" s="2" t="s">
+      <c r="V875" s="5" t="s">
         <v>980</v>
       </c>
     </row>
@@ -49535,44 +49309,42 @@
       <c r="V880" s="2"/>
     </row>
     <row r="881" spans="1:22">
-      <c r="A881" s="2" t="s">
+      <c r="A881" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="B881" s="2" t="s">
+      <c r="B881" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C881" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D881" s="2"/>
-      <c r="E881" s="2"/>
-      <c r="F881" s="2"/>
-      <c r="G881" s="2"/>
-      <c r="H881" s="2"/>
-      <c r="I881" s="2"/>
-      <c r="J881" s="2" t="s">
+      <c r="C881" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D881" s="5"/>
+      <c r="E881" s="5"/>
+      <c r="F881" s="5"/>
+      <c r="G881" s="5"/>
+      <c r="H881" s="5"/>
+      <c r="I881" s="5"/>
+      <c r="J881" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K881" s="2"/>
-      <c r="L881" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M881" s="2" t="s">
+      <c r="K881" s="5"/>
+      <c r="L881" s="7"/>
+      <c r="M881" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N881" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O881" s="2"/>
-      <c r="P881" s="2"/>
-      <c r="Q881" s="2"/>
-      <c r="R881" s="2"/>
-      <c r="S881" s="2"/>
-      <c r="T881" s="2"/>
-      <c r="U881" s="2" t="s">
+      <c r="N881" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O881" s="5"/>
+      <c r="P881" s="5"/>
+      <c r="Q881" s="5"/>
+      <c r="R881" s="5"/>
+      <c r="S881" s="5"/>
+      <c r="T881" s="5"/>
+      <c r="U881" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V881" s="2"/>
+      <c r="V881" s="5"/>
     </row>
     <row r="882" spans="1:22">
       <c r="A882" s="2" t="s">
@@ -49972,9 +49744,7 @@
         <v>757</v>
       </c>
       <c r="K889" s="2"/>
-      <c r="L889" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L889" s="7"/>
       <c r="M889" s="2" t="s">
         <v>160</v>
       </c>
@@ -50028,9 +49798,7 @@
         <v>757</v>
       </c>
       <c r="K890" s="2"/>
-      <c r="L890" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L890" s="7"/>
       <c r="M890" s="2" t="s">
         <v>160</v>
       </c>
@@ -50084,9 +49852,7 @@
         <v>757</v>
       </c>
       <c r="K891" s="2"/>
-      <c r="L891" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L891" s="7"/>
       <c r="M891" s="2" t="s">
         <v>160</v>
       </c>
@@ -50171,46 +49937,44 @@
       </c>
     </row>
     <row r="893" spans="1:22">
-      <c r="A893" s="2" t="s">
+      <c r="A893" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="B893" s="2" t="s">
+      <c r="B893" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C893" s="2" t="s">
+      <c r="C893" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D893" s="2"/>
-      <c r="E893" s="2"/>
-      <c r="F893" s="2"/>
-      <c r="G893" s="2"/>
-      <c r="H893" s="2"/>
-      <c r="I893" s="2"/>
-      <c r="J893" s="2" t="s">
+      <c r="D893" s="5"/>
+      <c r="E893" s="5"/>
+      <c r="F893" s="5"/>
+      <c r="G893" s="5"/>
+      <c r="H893" s="5"/>
+      <c r="I893" s="5"/>
+      <c r="J893" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="K893" s="2" t="s">
+      <c r="K893" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="L893" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M893" s="2" t="s">
+      <c r="L893" s="7"/>
+      <c r="M893" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N893" s="2" t="s">
+      <c r="N893" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O893" s="2"/>
-      <c r="P893" s="2"/>
-      <c r="Q893" s="2"/>
-      <c r="R893" s="2"/>
-      <c r="S893" s="2"/>
-      <c r="T893" s="2"/>
-      <c r="U893" s="2" t="s">
+      <c r="O893" s="5"/>
+      <c r="P893" s="5"/>
+      <c r="Q893" s="5"/>
+      <c r="R893" s="5"/>
+      <c r="S893" s="5"/>
+      <c r="T893" s="5"/>
+      <c r="U893" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="V893" s="2" t="s">
+      <c r="V893" s="5" t="s">
         <v>983</v>
       </c>
     </row>
@@ -50477,44 +50241,42 @@
       <c r="V898" s="2"/>
     </row>
     <row r="899" spans="1:22">
-      <c r="A899" s="2" t="s">
+      <c r="A899" s="5" t="s">
         <v>2137</v>
       </c>
-      <c r="B899" s="2" t="s">
+      <c r="B899" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C899" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D899" s="2"/>
-      <c r="E899" s="2"/>
-      <c r="F899" s="2"/>
-      <c r="G899" s="2"/>
-      <c r="H899" s="2"/>
-      <c r="I899" s="2"/>
-      <c r="J899" s="2" t="s">
+      <c r="C899" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D899" s="5"/>
+      <c r="E899" s="5"/>
+      <c r="F899" s="5"/>
+      <c r="G899" s="5"/>
+      <c r="H899" s="5"/>
+      <c r="I899" s="5"/>
+      <c r="J899" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K899" s="2"/>
-      <c r="L899" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M899" s="2" t="s">
+      <c r="K899" s="5"/>
+      <c r="L899" s="7"/>
+      <c r="M899" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="N899" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O899" s="2"/>
-      <c r="P899" s="2"/>
-      <c r="Q899" s="2"/>
-      <c r="R899" s="2"/>
-      <c r="S899" s="2"/>
-      <c r="T899" s="2"/>
-      <c r="U899" s="2" t="s">
+      <c r="N899" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O899" s="5"/>
+      <c r="P899" s="5"/>
+      <c r="Q899" s="5"/>
+      <c r="R899" s="5"/>
+      <c r="S899" s="5"/>
+      <c r="T899" s="5"/>
+      <c r="U899" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V899" s="2"/>
+      <c r="V899" s="5"/>
     </row>
     <row r="900" spans="1:22">
       <c r="A900" s="2" t="s">
@@ -50910,9 +50672,7 @@
         <v>757</v>
       </c>
       <c r="K907" s="2"/>
-      <c r="L907" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L907" s="7"/>
       <c r="M907" s="2" t="s">
         <v>163</v>
       </c>
@@ -50966,9 +50726,7 @@
         <v>757</v>
       </c>
       <c r="K908" s="2"/>
-      <c r="L908" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L908" s="7"/>
       <c r="M908" s="2" t="s">
         <v>163</v>
       </c>
@@ -51022,9 +50780,7 @@
         <v>757</v>
       </c>
       <c r="K909" s="2"/>
-      <c r="L909" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L909" s="7"/>
       <c r="M909" s="2" t="s">
         <v>163</v>
       </c>
@@ -51078,9 +50834,7 @@
         <v>757</v>
       </c>
       <c r="K910" s="2"/>
-      <c r="L910" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L910" s="7"/>
       <c r="M910" s="2" t="s">
         <v>163</v>
       </c>
@@ -51134,9 +50888,7 @@
         <v>757</v>
       </c>
       <c r="K911" s="2"/>
-      <c r="L911" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L911" s="7"/>
       <c r="M911" s="2" t="s">
         <v>163</v>
       </c>
@@ -51163,46 +50915,44 @@
       <c r="V911" s="2"/>
     </row>
     <row r="912" spans="1:22">
-      <c r="A912" s="2" t="s">
+      <c r="A912" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="B912" s="2" t="s">
+      <c r="B912" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C912" s="2" t="s">
+      <c r="C912" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D912" s="2"/>
-      <c r="E912" s="2"/>
-      <c r="F912" s="2"/>
-      <c r="G912" s="2"/>
-      <c r="H912" s="2"/>
-      <c r="I912" s="2"/>
-      <c r="J912" s="2" t="s">
+      <c r="D912" s="5"/>
+      <c r="E912" s="5"/>
+      <c r="F912" s="5"/>
+      <c r="G912" s="5"/>
+      <c r="H912" s="5"/>
+      <c r="I912" s="5"/>
+      <c r="J912" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="K912" s="2" t="s">
+      <c r="K912" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="L912" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M912" s="2" t="s">
+      <c r="L912" s="7"/>
+      <c r="M912" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N912" s="2" t="s">
+      <c r="N912" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O912" s="2"/>
-      <c r="P912" s="2"/>
-      <c r="Q912" s="2"/>
-      <c r="R912" s="2"/>
-      <c r="S912" s="2"/>
-      <c r="T912" s="2"/>
-      <c r="U912" s="2" t="s">
+      <c r="O912" s="5"/>
+      <c r="P912" s="5"/>
+      <c r="Q912" s="5"/>
+      <c r="R912" s="5"/>
+      <c r="S912" s="5"/>
+      <c r="T912" s="5"/>
+      <c r="U912" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="V912" s="2" t="s">
+      <c r="V912" s="5" t="s">
         <v>980</v>
       </c>
     </row>
@@ -51469,44 +51219,42 @@
       <c r="V917" s="2"/>
     </row>
     <row r="918" spans="1:22">
-      <c r="A918" s="2" t="s">
+      <c r="A918" s="5" t="s">
         <v>2156</v>
       </c>
-      <c r="B918" s="2" t="s">
+      <c r="B918" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C918" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D918" s="2"/>
-      <c r="E918" s="2"/>
-      <c r="F918" s="2"/>
-      <c r="G918" s="2"/>
-      <c r="H918" s="2"/>
-      <c r="I918" s="2"/>
-      <c r="J918" s="2" t="s">
+      <c r="C918" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D918" s="5"/>
+      <c r="E918" s="5"/>
+      <c r="F918" s="5"/>
+      <c r="G918" s="5"/>
+      <c r="H918" s="5"/>
+      <c r="I918" s="5"/>
+      <c r="J918" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K918" s="2"/>
-      <c r="L918" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M918" s="2" t="s">
+      <c r="K918" s="5"/>
+      <c r="L918" s="7"/>
+      <c r="M918" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N918" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O918" s="2"/>
-      <c r="P918" s="2"/>
-      <c r="Q918" s="2"/>
-      <c r="R918" s="2"/>
-      <c r="S918" s="2"/>
-      <c r="T918" s="2"/>
-      <c r="U918" s="2" t="s">
+      <c r="N918" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O918" s="5"/>
+      <c r="P918" s="5"/>
+      <c r="Q918" s="5"/>
+      <c r="R918" s="5"/>
+      <c r="S918" s="5"/>
+      <c r="T918" s="5"/>
+      <c r="U918" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V918" s="2"/>
+      <c r="V918" s="5"/>
     </row>
     <row r="919" spans="1:22">
       <c r="A919" s="2" t="s">
@@ -51902,9 +51650,7 @@
         <v>757</v>
       </c>
       <c r="K926" s="2"/>
-      <c r="L926" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L926" s="7"/>
       <c r="M926" s="2" t="s">
         <v>166</v>
       </c>
@@ -51931,46 +51677,44 @@
       <c r="V926" s="2"/>
     </row>
     <row r="927" spans="1:22">
-      <c r="A927" s="2" t="s">
+      <c r="A927" s="5" t="s">
         <v>2165</v>
       </c>
-      <c r="B927" s="2" t="s">
+      <c r="B927" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C927" s="2" t="s">
+      <c r="C927" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D927" s="2"/>
-      <c r="E927" s="2"/>
-      <c r="F927" s="2"/>
-      <c r="G927" s="2"/>
-      <c r="H927" s="2"/>
-      <c r="I927" s="2"/>
-      <c r="J927" s="2" t="s">
+      <c r="D927" s="5"/>
+      <c r="E927" s="5"/>
+      <c r="F927" s="5"/>
+      <c r="G927" s="5"/>
+      <c r="H927" s="5"/>
+      <c r="I927" s="5"/>
+      <c r="J927" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="K927" s="2" t="s">
+      <c r="K927" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="L927" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M927" s="2" t="s">
+      <c r="L927" s="7"/>
+      <c r="M927" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N927" s="2" t="s">
+      <c r="N927" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O927" s="2"/>
-      <c r="P927" s="2"/>
-      <c r="Q927" s="2"/>
-      <c r="R927" s="2"/>
-      <c r="S927" s="2"/>
-      <c r="T927" s="2"/>
-      <c r="U927" s="2" t="s">
+      <c r="O927" s="5"/>
+      <c r="P927" s="5"/>
+      <c r="Q927" s="5"/>
+      <c r="R927" s="5"/>
+      <c r="S927" s="5"/>
+      <c r="T927" s="5"/>
+      <c r="U927" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="V927" s="2" t="s">
+      <c r="V927" s="5" t="s">
         <v>980</v>
       </c>
     </row>
@@ -52098,9 +51842,7 @@
         <v>756</v>
       </c>
       <c r="K930" s="2"/>
-      <c r="L930" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L930" s="7"/>
       <c r="M930" s="2" t="s">
         <v>167</v>
       </c>
@@ -52385,46 +52127,44 @@
       </c>
     </row>
     <row r="936" spans="1:22">
-      <c r="A936" s="2" t="s">
+      <c r="A936" s="5" t="s">
         <v>2174</v>
       </c>
-      <c r="B936" s="2" t="s">
+      <c r="B936" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C936" s="2" t="s">
+      <c r="C936" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D936" s="2"/>
-      <c r="E936" s="2"/>
-      <c r="F936" s="2"/>
-      <c r="G936" s="2"/>
-      <c r="H936" s="2"/>
-      <c r="I936" s="2"/>
-      <c r="J936" s="2" t="s">
+      <c r="D936" s="5"/>
+      <c r="E936" s="5"/>
+      <c r="F936" s="5"/>
+      <c r="G936" s="5"/>
+      <c r="H936" s="5"/>
+      <c r="I936" s="5"/>
+      <c r="J936" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="K936" s="2" t="s">
+      <c r="K936" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="L936" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M936" s="2" t="s">
+      <c r="L936" s="7"/>
+      <c r="M936" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N936" s="2" t="s">
+      <c r="N936" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O936" s="2"/>
-      <c r="P936" s="2"/>
-      <c r="Q936" s="2"/>
-      <c r="R936" s="2"/>
-      <c r="S936" s="2"/>
-      <c r="T936" s="2"/>
-      <c r="U936" s="2" t="s">
+      <c r="O936" s="5"/>
+      <c r="P936" s="5"/>
+      <c r="Q936" s="5"/>
+      <c r="R936" s="5"/>
+      <c r="S936" s="5"/>
+      <c r="T936" s="5"/>
+      <c r="U936" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="V936" s="2" t="s">
+      <c r="V936" s="5" t="s">
         <v>985</v>
       </c>
     </row>
@@ -52853,44 +52593,42 @@
       </c>
     </row>
     <row r="945" spans="1:22">
-      <c r="A945" s="2" t="s">
+      <c r="A945" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="B945" s="2" t="s">
+      <c r="B945" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C945" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D945" s="2"/>
-      <c r="E945" s="2"/>
-      <c r="F945" s="2"/>
-      <c r="G945" s="2"/>
-      <c r="H945" s="2"/>
-      <c r="I945" s="2"/>
-      <c r="J945" s="2" t="s">
+      <c r="C945" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D945" s="5"/>
+      <c r="E945" s="5"/>
+      <c r="F945" s="5"/>
+      <c r="G945" s="5"/>
+      <c r="H945" s="5"/>
+      <c r="I945" s="5"/>
+      <c r="J945" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K945" s="2"/>
-      <c r="L945" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M945" s="2" t="s">
+      <c r="K945" s="5"/>
+      <c r="L945" s="7"/>
+      <c r="M945" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N945" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O945" s="2"/>
-      <c r="P945" s="2"/>
-      <c r="Q945" s="2"/>
-      <c r="R945" s="2"/>
-      <c r="S945" s="2"/>
-      <c r="T945" s="2"/>
-      <c r="U945" s="2" t="s">
+      <c r="N945" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O945" s="5"/>
+      <c r="P945" s="5"/>
+      <c r="Q945" s="5"/>
+      <c r="R945" s="5"/>
+      <c r="S945" s="5"/>
+      <c r="T945" s="5"/>
+      <c r="U945" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V945" s="2"/>
+      <c r="V945" s="5"/>
     </row>
     <row r="946" spans="1:22">
       <c r="A946" s="2" t="s">
@@ -53159,46 +52897,44 @@
       </c>
     </row>
     <row r="951" spans="1:22">
-      <c r="A951" s="2" t="s">
+      <c r="A951" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="B951" s="2" t="s">
+      <c r="B951" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C951" s="2" t="s">
+      <c r="C951" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D951" s="2"/>
-      <c r="E951" s="2"/>
-      <c r="F951" s="2"/>
-      <c r="G951" s="2"/>
-      <c r="H951" s="2"/>
-      <c r="I951" s="2"/>
-      <c r="J951" s="2" t="s">
+      <c r="D951" s="5"/>
+      <c r="E951" s="5"/>
+      <c r="F951" s="5"/>
+      <c r="G951" s="5"/>
+      <c r="H951" s="5"/>
+      <c r="I951" s="5"/>
+      <c r="J951" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="K951" s="2" t="s">
+      <c r="K951" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="L951" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M951" s="2" t="s">
+      <c r="L951" s="7"/>
+      <c r="M951" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N951" s="2" t="s">
+      <c r="N951" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O951" s="2"/>
-      <c r="P951" s="2"/>
-      <c r="Q951" s="2"/>
-      <c r="R951" s="2"/>
-      <c r="S951" s="2"/>
-      <c r="T951" s="2"/>
-      <c r="U951" s="2" t="s">
+      <c r="O951" s="5"/>
+      <c r="P951" s="5"/>
+      <c r="Q951" s="5"/>
+      <c r="R951" s="5"/>
+      <c r="S951" s="5"/>
+      <c r="T951" s="5"/>
+      <c r="U951" s="5" t="s">
         <v>874</v>
       </c>
-      <c r="V951" s="2" t="s">
+      <c r="V951" s="5" t="s">
         <v>986</v>
       </c>
     </row>
@@ -53469,44 +53205,42 @@
       </c>
     </row>
     <row r="957" spans="1:22">
-      <c r="A957" s="2" t="s">
+      <c r="A957" s="5" t="s">
         <v>2195</v>
       </c>
-      <c r="B957" s="2" t="s">
+      <c r="B957" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C957" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D957" s="2"/>
-      <c r="E957" s="2"/>
-      <c r="F957" s="2"/>
-      <c r="G957" s="2"/>
-      <c r="H957" s="2"/>
-      <c r="I957" s="2"/>
-      <c r="J957" s="2" t="s">
+      <c r="C957" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D957" s="5"/>
+      <c r="E957" s="5"/>
+      <c r="F957" s="5"/>
+      <c r="G957" s="5"/>
+      <c r="H957" s="5"/>
+      <c r="I957" s="5"/>
+      <c r="J957" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K957" s="2"/>
-      <c r="L957" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M957" s="2" t="s">
+      <c r="K957" s="5"/>
+      <c r="L957" s="7"/>
+      <c r="M957" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N957" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O957" s="2"/>
-      <c r="P957" s="2"/>
-      <c r="Q957" s="2"/>
-      <c r="R957" s="2"/>
-      <c r="S957" s="2"/>
-      <c r="T957" s="2"/>
-      <c r="U957" s="2" t="s">
+      <c r="N957" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O957" s="5"/>
+      <c r="P957" s="5"/>
+      <c r="Q957" s="5"/>
+      <c r="R957" s="5"/>
+      <c r="S957" s="5"/>
+      <c r="T957" s="5"/>
+      <c r="U957" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V957" s="2"/>
+      <c r="V957" s="5"/>
     </row>
     <row r="958" spans="1:22">
       <c r="A958" s="2" t="s">
@@ -53700,9 +53434,7 @@
       <c r="K961" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="L961" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L961" s="7"/>
       <c r="M961" s="2" t="s">
         <v>171</v>
       </c>
@@ -53831,46 +53563,44 @@
       <c r="V963" s="2"/>
     </row>
     <row r="964" spans="1:22">
-      <c r="A964" s="2" t="s">
+      <c r="A964" s="5" t="s">
         <v>2202</v>
       </c>
-      <c r="B964" s="2" t="s">
+      <c r="B964" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C964" s="2" t="s">
+      <c r="C964" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D964" s="2"/>
-      <c r="E964" s="2"/>
-      <c r="F964" s="2"/>
-      <c r="G964" s="2"/>
-      <c r="H964" s="2"/>
-      <c r="I964" s="2"/>
-      <c r="J964" s="2" t="s">
+      <c r="D964" s="5"/>
+      <c r="E964" s="5"/>
+      <c r="F964" s="5"/>
+      <c r="G964" s="5"/>
+      <c r="H964" s="5"/>
+      <c r="I964" s="5"/>
+      <c r="J964" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="K964" s="2" t="s">
+      <c r="K964" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="L964" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M964" s="2" t="s">
+      <c r="L964" s="7"/>
+      <c r="M964" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N964" s="2" t="s">
+      <c r="N964" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O964" s="2"/>
-      <c r="P964" s="2"/>
-      <c r="Q964" s="2"/>
-      <c r="R964" s="2"/>
-      <c r="S964" s="2"/>
-      <c r="T964" s="2"/>
-      <c r="U964" s="2" t="s">
+      <c r="O964" s="5"/>
+      <c r="P964" s="5"/>
+      <c r="Q964" s="5"/>
+      <c r="R964" s="5"/>
+      <c r="S964" s="5"/>
+      <c r="T964" s="5"/>
+      <c r="U964" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="V964" s="2" t="s">
+      <c r="V964" s="5" t="s">
         <v>988</v>
       </c>
     </row>
@@ -54141,44 +53871,42 @@
       </c>
     </row>
     <row r="970" spans="1:22">
-      <c r="A970" s="2" t="s">
+      <c r="A970" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="B970" s="2" t="s">
+      <c r="B970" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C970" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D970" s="2"/>
-      <c r="E970" s="2"/>
-      <c r="F970" s="2"/>
-      <c r="G970" s="2"/>
-      <c r="H970" s="2"/>
-      <c r="I970" s="2"/>
-      <c r="J970" s="2" t="s">
+      <c r="C970" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D970" s="5"/>
+      <c r="E970" s="5"/>
+      <c r="F970" s="5"/>
+      <c r="G970" s="5"/>
+      <c r="H970" s="5"/>
+      <c r="I970" s="5"/>
+      <c r="J970" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K970" s="2"/>
-      <c r="L970" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M970" s="2" t="s">
+      <c r="K970" s="5"/>
+      <c r="L970" s="7"/>
+      <c r="M970" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N970" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O970" s="2"/>
-      <c r="P970" s="2"/>
-      <c r="Q970" s="2"/>
-      <c r="R970" s="2"/>
-      <c r="S970" s="2"/>
-      <c r="T970" s="2"/>
-      <c r="U970" s="2" t="s">
+      <c r="N970" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O970" s="5"/>
+      <c r="P970" s="5"/>
+      <c r="Q970" s="5"/>
+      <c r="R970" s="5"/>
+      <c r="S970" s="5"/>
+      <c r="T970" s="5"/>
+      <c r="U970" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V970" s="2"/>
+      <c r="V970" s="5"/>
     </row>
     <row r="971" spans="1:22">
       <c r="A971" s="2" t="s">
@@ -54385,44 +54113,42 @@
       <c r="V974" s="2"/>
     </row>
     <row r="975" spans="1:22">
-      <c r="A975" s="2" t="s">
+      <c r="A975" s="5" t="s">
         <v>2213</v>
       </c>
-      <c r="B975" s="2" t="s">
+      <c r="B975" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C975" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D975" s="2"/>
-      <c r="E975" s="2"/>
-      <c r="F975" s="2"/>
-      <c r="G975" s="2"/>
-      <c r="H975" s="2"/>
-      <c r="I975" s="2"/>
-      <c r="J975" s="2" t="s">
+      <c r="C975" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D975" s="5"/>
+      <c r="E975" s="5"/>
+      <c r="F975" s="5"/>
+      <c r="G975" s="5"/>
+      <c r="H975" s="5"/>
+      <c r="I975" s="5"/>
+      <c r="J975" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K975" s="2"/>
-      <c r="L975" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M975" s="2" t="s">
+      <c r="K975" s="5"/>
+      <c r="L975" s="7"/>
+      <c r="M975" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N975" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O975" s="2"/>
-      <c r="P975" s="2"/>
-      <c r="Q975" s="2"/>
-      <c r="R975" s="2"/>
-      <c r="S975" s="2"/>
-      <c r="T975" s="2"/>
-      <c r="U975" s="2" t="s">
+      <c r="N975" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O975" s="5"/>
+      <c r="P975" s="5"/>
+      <c r="Q975" s="5"/>
+      <c r="R975" s="5"/>
+      <c r="S975" s="5"/>
+      <c r="T975" s="5"/>
+      <c r="U975" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V975" s="2"/>
+      <c r="V975" s="5"/>
     </row>
     <row r="976" spans="1:22">
       <c r="A976" s="2" t="s">
@@ -54614,9 +54340,7 @@
         <v>757</v>
       </c>
       <c r="K979" s="2"/>
-      <c r="L979" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L979" s="7"/>
       <c r="M979" s="2" t="s">
         <v>171</v>
       </c>
@@ -54743,44 +54467,42 @@
       <c r="V981" s="2"/>
     </row>
     <row r="982" spans="1:22">
-      <c r="A982" s="2" t="s">
+      <c r="A982" s="5" t="s">
         <v>2220</v>
       </c>
-      <c r="B982" s="2" t="s">
+      <c r="B982" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C982" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D982" s="2"/>
-      <c r="E982" s="2"/>
-      <c r="F982" s="2"/>
-      <c r="G982" s="2"/>
-      <c r="H982" s="2"/>
-      <c r="I982" s="2"/>
-      <c r="J982" s="2" t="s">
+      <c r="C982" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D982" s="5"/>
+      <c r="E982" s="5"/>
+      <c r="F982" s="5"/>
+      <c r="G982" s="5"/>
+      <c r="H982" s="5"/>
+      <c r="I982" s="5"/>
+      <c r="J982" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K982" s="2"/>
-      <c r="L982" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M982" s="2" t="s">
+      <c r="K982" s="5"/>
+      <c r="L982" s="7"/>
+      <c r="M982" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N982" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O982" s="2"/>
-      <c r="P982" s="2"/>
-      <c r="Q982" s="2"/>
-      <c r="R982" s="2"/>
-      <c r="S982" s="2"/>
-      <c r="T982" s="2"/>
-      <c r="U982" s="2" t="s">
+      <c r="N982" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O982" s="5"/>
+      <c r="P982" s="5"/>
+      <c r="Q982" s="5"/>
+      <c r="R982" s="5"/>
+      <c r="S982" s="5"/>
+      <c r="T982" s="5"/>
+      <c r="U982" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V982" s="2"/>
+      <c r="V982" s="5"/>
     </row>
     <row r="983" spans="1:22">
       <c r="A983" s="2" t="s">
@@ -54914,9 +54636,7 @@
         <v>757</v>
       </c>
       <c r="K985" s="2"/>
-      <c r="L985" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L985" s="7"/>
       <c r="M985" s="2" t="s">
         <v>174</v>
       </c>
@@ -55140,9 +54860,7 @@
         <v>757</v>
       </c>
       <c r="K989" s="2"/>
-      <c r="L989" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L989" s="7"/>
       <c r="M989" s="2" t="s">
         <v>174</v>
       </c>
@@ -55169,44 +54887,42 @@
       <c r="V989" s="2"/>
     </row>
     <row r="990" spans="1:22">
-      <c r="A990" s="2" t="s">
+      <c r="A990" s="5" t="s">
         <v>2228</v>
       </c>
-      <c r="B990" s="2" t="s">
+      <c r="B990" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C990" s="2" t="s">
+      <c r="C990" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D990" s="2"/>
-      <c r="E990" s="2"/>
-      <c r="F990" s="2"/>
-      <c r="G990" s="2"/>
-      <c r="H990" s="2"/>
-      <c r="I990" s="2"/>
-      <c r="J990" s="2" t="s">
+      <c r="D990" s="5"/>
+      <c r="E990" s="5"/>
+      <c r="F990" s="5"/>
+      <c r="G990" s="5"/>
+      <c r="H990" s="5"/>
+      <c r="I990" s="5"/>
+      <c r="J990" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K990" s="2"/>
-      <c r="L990" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M990" s="2" t="s">
+      <c r="K990" s="5"/>
+      <c r="L990" s="7"/>
+      <c r="M990" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="N990" s="2" t="s">
+      <c r="N990" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="O990" s="2"/>
-      <c r="P990" s="2"/>
-      <c r="Q990" s="2"/>
-      <c r="R990" s="2"/>
-      <c r="S990" s="2"/>
-      <c r="T990" s="2"/>
-      <c r="U990" s="2" t="s">
+      <c r="O990" s="5"/>
+      <c r="P990" s="5"/>
+      <c r="Q990" s="5"/>
+      <c r="R990" s="5"/>
+      <c r="S990" s="5"/>
+      <c r="T990" s="5"/>
+      <c r="U990" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V990" s="2"/>
+      <c r="V990" s="5"/>
     </row>
     <row r="991" spans="1:22">
       <c r="A991" s="2" t="s">
@@ -55313,44 +55029,42 @@
       <c r="V992" s="2"/>
     </row>
     <row r="993" spans="1:22">
-      <c r="A993" s="2" t="s">
+      <c r="A993" s="5" t="s">
         <v>2231</v>
       </c>
-      <c r="B993" s="2" t="s">
+      <c r="B993" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C993" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D993" s="2"/>
-      <c r="E993" s="2"/>
-      <c r="F993" s="2"/>
-      <c r="G993" s="2"/>
-      <c r="H993" s="2"/>
-      <c r="I993" s="2"/>
-      <c r="J993" s="2" t="s">
+      <c r="C993" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D993" s="5"/>
+      <c r="E993" s="5"/>
+      <c r="F993" s="5"/>
+      <c r="G993" s="5"/>
+      <c r="H993" s="5"/>
+      <c r="I993" s="5"/>
+      <c r="J993" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K993" s="2"/>
-      <c r="L993" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M993" s="2" t="s">
+      <c r="K993" s="5"/>
+      <c r="L993" s="7"/>
+      <c r="M993" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N993" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O993" s="2"/>
-      <c r="P993" s="2"/>
-      <c r="Q993" s="2"/>
-      <c r="R993" s="2"/>
-      <c r="S993" s="2"/>
-      <c r="T993" s="2"/>
-      <c r="U993" s="2" t="s">
+      <c r="N993" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O993" s="5"/>
+      <c r="P993" s="5"/>
+      <c r="Q993" s="5"/>
+      <c r="R993" s="5"/>
+      <c r="S993" s="5"/>
+      <c r="T993" s="5"/>
+      <c r="U993" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V993" s="2"/>
+      <c r="V993" s="5"/>
     </row>
     <row r="994" spans="1:22">
       <c r="A994" s="2" t="s">
@@ -55542,9 +55256,7 @@
         <v>757</v>
       </c>
       <c r="K997" s="2"/>
-      <c r="L997" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L997" s="7"/>
       <c r="M997" s="2" t="s">
         <v>176</v>
       </c>
@@ -55598,9 +55310,7 @@
         <v>757</v>
       </c>
       <c r="K998" s="2"/>
-      <c r="L998" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L998" s="7"/>
       <c r="M998" s="2" t="s">
         <v>176</v>
       </c>
@@ -56183,46 +55893,44 @@
       <c r="V1008" s="2"/>
     </row>
     <row r="1009" spans="1:22">
-      <c r="A1009" s="2" t="s">
+      <c r="A1009" s="5" t="s">
         <v>2245</v>
       </c>
-      <c r="B1009" s="2" t="s">
+      <c r="B1009" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C1009" s="2" t="s">
+      <c r="C1009" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
-      <c r="G1009" s="2"/>
-      <c r="H1009" s="2"/>
-      <c r="I1009" s="2"/>
-      <c r="J1009" s="2" t="s">
+      <c r="D1009" s="5"/>
+      <c r="E1009" s="5"/>
+      <c r="F1009" s="5"/>
+      <c r="G1009" s="5"/>
+      <c r="H1009" s="5"/>
+      <c r="I1009" s="5"/>
+      <c r="J1009" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="K1009" s="2" t="s">
+      <c r="K1009" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="L1009" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M1009" s="2" t="s">
+      <c r="L1009" s="7"/>
+      <c r="M1009" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N1009" s="2" t="s">
+      <c r="N1009" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O1009" s="2"/>
-      <c r="P1009" s="2"/>
-      <c r="Q1009" s="2"/>
-      <c r="R1009" s="2"/>
-      <c r="S1009" s="2"/>
-      <c r="T1009" s="2"/>
-      <c r="U1009" s="2" t="s">
+      <c r="O1009" s="5"/>
+      <c r="P1009" s="5"/>
+      <c r="Q1009" s="5"/>
+      <c r="R1009" s="5"/>
+      <c r="S1009" s="5"/>
+      <c r="T1009" s="5"/>
+      <c r="U1009" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="V1009" s="2" t="s">
+      <c r="V1009" s="5" t="s">
         <v>991</v>
       </c>
     </row>
@@ -56470,9 +56178,7 @@
         <v>757</v>
       </c>
       <c r="K1014" s="2"/>
-      <c r="L1014" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L1014" s="7"/>
       <c r="M1014" s="2" t="s">
         <v>178</v>
       </c>
@@ -56661,46 +56367,44 @@
       </c>
     </row>
     <row r="1018" spans="1:22">
-      <c r="A1018" s="2" t="s">
+      <c r="A1018" s="5" t="s">
         <v>2254</v>
       </c>
-      <c r="B1018" s="2" t="s">
+      <c r="B1018" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C1018" s="2" t="s">
+      <c r="C1018" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D1018" s="2"/>
-      <c r="E1018" s="2"/>
-      <c r="F1018" s="2"/>
-      <c r="G1018" s="2"/>
-      <c r="H1018" s="2"/>
-      <c r="I1018" s="2"/>
-      <c r="J1018" s="2" t="s">
+      <c r="D1018" s="5"/>
+      <c r="E1018" s="5"/>
+      <c r="F1018" s="5"/>
+      <c r="G1018" s="5"/>
+      <c r="H1018" s="5"/>
+      <c r="I1018" s="5"/>
+      <c r="J1018" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="K1018" s="2" t="s">
+      <c r="K1018" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="L1018" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M1018" s="2" t="s">
+      <c r="L1018" s="7"/>
+      <c r="M1018" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N1018" s="2" t="s">
+      <c r="N1018" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O1018" s="2"/>
-      <c r="P1018" s="2"/>
-      <c r="Q1018" s="2"/>
-      <c r="R1018" s="2"/>
-      <c r="S1018" s="2"/>
-      <c r="T1018" s="2"/>
-      <c r="U1018" s="2" t="s">
+      <c r="O1018" s="5"/>
+      <c r="P1018" s="5"/>
+      <c r="Q1018" s="5"/>
+      <c r="R1018" s="5"/>
+      <c r="S1018" s="5"/>
+      <c r="T1018" s="5"/>
+      <c r="U1018" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="V1018" s="2" t="s">
+      <c r="V1018" s="5" t="s">
         <v>992</v>
       </c>
     </row>
@@ -56948,9 +56652,7 @@
         <v>757</v>
       </c>
       <c r="K1023" s="2"/>
-      <c r="L1023" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L1023" s="7"/>
       <c r="M1023" s="2" t="s">
         <v>179</v>
       </c>
@@ -57359,44 +57061,42 @@
       </c>
     </row>
     <row r="1031" spans="1:22">
-      <c r="A1031" s="2" t="s">
+      <c r="A1031" s="5" t="s">
         <v>2267</v>
       </c>
-      <c r="B1031" s="2" t="s">
+      <c r="B1031" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C1031" s="2" t="s">
+      <c r="C1031" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D1031" s="2"/>
-      <c r="E1031" s="2"/>
-      <c r="F1031" s="2"/>
-      <c r="G1031" s="2"/>
-      <c r="H1031" s="2"/>
-      <c r="I1031" s="2"/>
-      <c r="J1031" s="2" t="s">
+      <c r="D1031" s="5"/>
+      <c r="E1031" s="5"/>
+      <c r="F1031" s="5"/>
+      <c r="G1031" s="5"/>
+      <c r="H1031" s="5"/>
+      <c r="I1031" s="5"/>
+      <c r="J1031" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="K1031" s="2"/>
-      <c r="L1031" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M1031" s="2" t="s">
+      <c r="K1031" s="5"/>
+      <c r="L1031" s="7"/>
+      <c r="M1031" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N1031" s="2" t="s">
+      <c r="N1031" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O1031" s="2"/>
-      <c r="P1031" s="2"/>
-      <c r="Q1031" s="2"/>
-      <c r="R1031" s="2"/>
-      <c r="S1031" s="2"/>
-      <c r="T1031" s="2"/>
-      <c r="U1031" s="2" t="s">
+      <c r="O1031" s="5"/>
+      <c r="P1031" s="5"/>
+      <c r="Q1031" s="5"/>
+      <c r="R1031" s="5"/>
+      <c r="S1031" s="5"/>
+      <c r="T1031" s="5"/>
+      <c r="U1031" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="V1031" s="2"/>
+      <c r="V1031" s="5"/>
     </row>
     <row r="1032" spans="1:22">
       <c r="A1032" s="2" t="s">
@@ -57777,46 +57477,44 @@
       <c r="V1038" s="2"/>
     </row>
     <row r="1039" spans="1:22">
-      <c r="A1039" s="2" t="s">
+      <c r="A1039" s="5" t="s">
         <v>2275</v>
       </c>
-      <c r="B1039" s="2" t="s">
+      <c r="B1039" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C1039" s="2" t="s">
+      <c r="C1039" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D1039" s="2"/>
-      <c r="E1039" s="2"/>
-      <c r="F1039" s="2"/>
-      <c r="G1039" s="2"/>
-      <c r="H1039" s="2"/>
-      <c r="I1039" s="2"/>
-      <c r="J1039" s="2" t="s">
+      <c r="D1039" s="5"/>
+      <c r="E1039" s="5"/>
+      <c r="F1039" s="5"/>
+      <c r="G1039" s="5"/>
+      <c r="H1039" s="5"/>
+      <c r="I1039" s="5"/>
+      <c r="J1039" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="K1039" s="2" t="s">
+      <c r="K1039" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="L1039" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="M1039" s="2" t="s">
+      <c r="L1039" s="7"/>
+      <c r="M1039" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N1039" s="2" t="s">
+      <c r="N1039" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="O1039" s="2"/>
-      <c r="P1039" s="2"/>
-      <c r="Q1039" s="2"/>
-      <c r="R1039" s="2"/>
-      <c r="S1039" s="2"/>
-      <c r="T1039" s="2"/>
-      <c r="U1039" s="2" t="s">
+      <c r="O1039" s="5"/>
+      <c r="P1039" s="5"/>
+      <c r="Q1039" s="5"/>
+      <c r="R1039" s="5"/>
+      <c r="S1039" s="5"/>
+      <c r="T1039" s="5"/>
+      <c r="U1039" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="V1039" s="2" t="s">
+      <c r="V1039" s="5" t="s">
         <v>995</v>
       </c>
     </row>
@@ -58064,9 +57762,7 @@
         <v>757</v>
       </c>
       <c r="K1044" s="2"/>
-      <c r="L1044" s="4" t="s">
-        <v>996</v>
-      </c>
+      <c r="L1044" s="7"/>
       <c r="M1044" s="2" t="s">
         <v>181</v>
       </c>
